--- a/war/config/mandarinL1/cml1.xlsx
+++ b/war/config/mandarinL1/cml1.xlsx
@@ -4477,7 +4477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4495,9 +4495,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4518,9 +4515,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4819,7 +4822,7 @@
   <dimension ref="A1:E690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4828,17 +4831,17 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="5" max="5" width="25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1428</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -4853,12 +4856,12 @@
       <c r="D3" t="s">
         <v>1432</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="7" t="s">
@@ -4873,7 +4876,7 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4890,7 +4893,7 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4907,7 +4910,7 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4924,7 +4927,7 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4941,7 +4944,7 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4958,7 +4961,7 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4975,7 +4978,7 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4992,7 +4995,7 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5009,7 +5012,7 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5026,7 +5029,7 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5043,7 +5046,7 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5060,7 +5063,7 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5077,7 +5080,7 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5094,7 +5097,7 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5111,7 +5114,7 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5128,7 +5131,7 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5145,7 +5148,7 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5162,7 +5165,7 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5179,7 +5182,7 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -5196,12 +5199,12 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5213,12 +5216,12 @@
       <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5230,12 +5233,12 @@
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5247,12 +5250,12 @@
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5264,12 +5267,12 @@
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5281,12 +5284,12 @@
       <c r="D29" s="5">
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5298,12 +5301,12 @@
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5315,12 +5318,12 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5332,12 +5335,12 @@
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5349,12 +5352,12 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5366,12 +5369,12 @@
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5383,12 +5386,12 @@
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5400,12 +5403,12 @@
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5417,12 +5420,12 @@
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5434,12 +5437,12 @@
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5451,12 +5454,12 @@
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5468,12 +5471,12 @@
       <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5485,12 +5488,12 @@
       <c r="D41" s="5">
         <v>1</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5502,12 +5505,12 @@
       <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5519,12 +5522,12 @@
       <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5536,12 +5539,12 @@
       <c r="D44" s="5">
         <v>1</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5553,12 +5556,12 @@
       <c r="D45" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5570,12 +5573,12 @@
       <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5587,12 +5590,12 @@
       <c r="D47" s="5">
         <v>1</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="16">
         <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5604,7 +5607,7 @@
       <c r="D48" s="5">
         <v>1</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="16">
         <v>1.2</v>
       </c>
     </row>
@@ -5621,7 +5624,7 @@
       <c r="D49" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5638,7 +5641,7 @@
       <c r="D50" s="5">
         <v>1</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5655,7 +5658,7 @@
       <c r="D51" s="5">
         <v>1</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5672,7 +5675,7 @@
       <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5689,7 +5692,7 @@
       <c r="D53" s="5">
         <v>1</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5706,7 +5709,7 @@
       <c r="D54" s="5">
         <v>1</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5723,7 +5726,7 @@
       <c r="D55" s="5">
         <v>1</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5740,7 +5743,7 @@
       <c r="D56" s="5">
         <v>1</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5757,7 +5760,7 @@
       <c r="D57" s="5">
         <v>1</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5774,7 +5777,7 @@
       <c r="D58" s="5">
         <v>1</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5791,7 +5794,7 @@
       <c r="D59" s="5">
         <v>1</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5808,7 +5811,7 @@
       <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5825,7 +5828,7 @@
       <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5842,7 +5845,7 @@
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5859,7 +5862,7 @@
       <c r="D63" s="5">
         <v>1</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5876,7 +5879,7 @@
       <c r="D64" s="5">
         <v>1</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5893,7 +5896,7 @@
       <c r="D65" s="5">
         <v>1</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -5910,12 +5913,12 @@
       <c r="D66" s="5">
         <v>1</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="16">
         <v>1.3</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -5927,12 +5930,12 @@
       <c r="D67" s="5">
         <v>1</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -5944,12 +5947,12 @@
       <c r="D68" s="5">
         <v>1</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -5961,12 +5964,12 @@
       <c r="D69" s="5">
         <v>1</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -5978,12 +5981,12 @@
       <c r="D70" s="5">
         <v>1</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -5995,12 +5998,12 @@
       <c r="D71" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6012,12 +6015,12 @@
       <c r="D72" s="5">
         <v>1</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6029,12 +6032,12 @@
       <c r="D73" s="5">
         <v>1</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -6046,12 +6049,12 @@
       <c r="D74" s="5">
         <v>1</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6063,12 +6066,12 @@
       <c r="D75" s="5">
         <v>1</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6080,12 +6083,12 @@
       <c r="D76" s="5">
         <v>1</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6097,12 +6100,12 @@
       <c r="D77" s="5">
         <v>1</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6114,12 +6117,12 @@
       <c r="D78" s="5">
         <v>1</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6131,12 +6134,12 @@
       <c r="D79" s="5">
         <v>1</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6148,12 +6151,12 @@
       <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6165,12 +6168,12 @@
       <c r="D81" s="5">
         <v>1</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6182,12 +6185,12 @@
       <c r="D82" s="5">
         <v>1</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6199,12 +6202,12 @@
       <c r="D83" s="5">
         <v>1</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6216,12 +6219,12 @@
       <c r="D84" s="5">
         <v>1</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6233,12 +6236,12 @@
       <c r="D85" s="5">
         <v>1</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6250,12 +6253,12 @@
       <c r="D86" s="5">
         <v>1</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -6267,12 +6270,12 @@
       <c r="D87" s="5">
         <v>1</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -6284,12 +6287,12 @@
       <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -6301,12 +6304,12 @@
       <c r="D89" s="5">
         <v>1</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="16">
         <v>1.4</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -6318,7 +6321,7 @@
       <c r="D90" s="5">
         <v>1</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="16">
         <v>1.4</v>
       </c>
     </row>
@@ -6335,7 +6338,7 @@
       <c r="D91" s="5">
         <v>1</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6352,7 +6355,7 @@
       <c r="D92" s="5">
         <v>1</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6369,7 +6372,7 @@
       <c r="D93" s="5">
         <v>1</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6386,7 +6389,7 @@
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6403,7 +6406,7 @@
       <c r="D95" s="5">
         <v>1</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6420,7 +6423,7 @@
       <c r="D96" s="5">
         <v>1</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6437,7 +6440,7 @@
       <c r="D97" s="5">
         <v>1</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6454,7 +6457,7 @@
       <c r="D98" s="5">
         <v>1</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6471,7 +6474,7 @@
       <c r="D99" s="5">
         <v>1</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6488,7 +6491,7 @@
       <c r="D100" s="5">
         <v>1</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6505,7 +6508,7 @@
       <c r="D101" s="5">
         <v>1</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6522,7 +6525,7 @@
       <c r="D102" s="5">
         <v>1</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6539,7 +6542,7 @@
       <c r="D103" s="5">
         <v>1</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6550,13 +6553,13 @@
       <c r="B104" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="9" t="s">
         <v>198</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6573,7 +6576,7 @@
       <c r="D105" s="5">
         <v>1</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6590,7 +6593,7 @@
       <c r="D106" s="5">
         <v>1</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6607,7 +6610,7 @@
       <c r="D107" s="5">
         <v>1</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="16">
         <v>1.5</v>
       </c>
     </row>
@@ -6624,12 +6627,12 @@
       <c r="D108" s="5">
         <v>1</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="16">
         <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -6641,12 +6644,12 @@
       <c r="D109" s="5">
         <v>1</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -6658,12 +6661,12 @@
       <c r="D110" s="5">
         <v>1</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -6675,12 +6678,12 @@
       <c r="D111" s="5">
         <v>1</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -6692,12 +6695,12 @@
       <c r="D112" s="5">
         <v>1</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -6709,12 +6712,12 @@
       <c r="D113" s="5">
         <v>1</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -6726,12 +6729,12 @@
       <c r="D114" s="5">
         <v>1</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -6743,12 +6746,12 @@
       <c r="D115" s="5">
         <v>1</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -6760,12 +6763,12 @@
       <c r="D116" s="5">
         <v>1</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -6777,12 +6780,12 @@
       <c r="D117" s="5">
         <v>1</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -6794,12 +6797,12 @@
       <c r="D118" s="5">
         <v>1</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -6811,12 +6814,12 @@
       <c r="D119" s="5">
         <v>1</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -6828,12 +6831,12 @@
       <c r="D120" s="5">
         <v>1</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -6845,12 +6848,12 @@
       <c r="D121" s="5">
         <v>1</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -6862,12 +6865,12 @@
       <c r="D122" s="5">
         <v>1</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -6879,12 +6882,12 @@
       <c r="D123" s="5">
         <v>1</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -6896,12 +6899,12 @@
       <c r="D124" s="5">
         <v>1</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -6913,12 +6916,12 @@
       <c r="D125" s="5">
         <v>1</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -6930,12 +6933,12 @@
       <c r="D126" s="5">
         <v>1</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -6947,12 +6950,12 @@
       <c r="D127" s="5">
         <v>1</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -6964,12 +6967,12 @@
       <c r="D128" s="5">
         <v>1</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -6981,12 +6984,12 @@
       <c r="D129" s="5">
         <v>1</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -6998,12 +7001,12 @@
       <c r="D130" s="5">
         <v>1</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -7015,12 +7018,12 @@
       <c r="D131" s="5">
         <v>1</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -7032,7 +7035,7 @@
       <c r="D132" s="5">
         <v>1</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="16">
         <v>1.6</v>
       </c>
     </row>
@@ -7049,7 +7052,7 @@
       <c r="D133" s="5">
         <v>1</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7066,7 +7069,7 @@
       <c r="D134" s="5">
         <v>1</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7083,7 +7086,7 @@
       <c r="D135" s="5">
         <v>1</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7100,7 +7103,7 @@
       <c r="D136" s="5">
         <v>1</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7117,7 +7120,7 @@
       <c r="D137" s="5">
         <v>1</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7134,7 +7137,7 @@
       <c r="D138" s="5">
         <v>1</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7151,7 +7154,7 @@
       <c r="D139" s="5">
         <v>1</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7168,7 +7171,7 @@
       <c r="D140" s="5">
         <v>1</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7185,7 +7188,7 @@
       <c r="D141" s="5">
         <v>1</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7202,7 +7205,7 @@
       <c r="D142" s="5">
         <v>1</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7219,7 +7222,7 @@
       <c r="D143" s="5">
         <v>1</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7236,7 +7239,7 @@
       <c r="D144" s="5">
         <v>1</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7253,7 +7256,7 @@
       <c r="D145" s="5">
         <v>1</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7270,7 +7273,7 @@
       <c r="D146" s="5">
         <v>1</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7287,7 +7290,7 @@
       <c r="D147" s="5">
         <v>1</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7304,7 +7307,7 @@
       <c r="D148" s="5">
         <v>1</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7321,7 +7324,7 @@
       <c r="D149" s="5">
         <v>1</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7338,7 +7341,7 @@
       <c r="D150" s="5">
         <v>1</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="16">
         <v>1.7</v>
       </c>
     </row>
@@ -7355,7 +7358,7 @@
       <c r="D151" s="5">
         <v>2</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7372,7 +7375,7 @@
       <c r="D152" s="2">
         <v>2</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7389,7 +7392,7 @@
       <c r="D153" s="5">
         <v>2</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7406,7 +7409,7 @@
       <c r="D154" s="2">
         <v>2</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7423,7 +7426,7 @@
       <c r="D155" s="5">
         <v>2</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7440,7 +7443,7 @@
       <c r="D156" s="2">
         <v>2</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7457,7 +7460,7 @@
       <c r="D157" s="5">
         <v>2</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7474,7 +7477,7 @@
       <c r="D158" s="2">
         <v>2</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7491,7 +7494,7 @@
       <c r="D159" s="5">
         <v>2</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7508,7 +7511,7 @@
       <c r="D160" s="2">
         <v>2</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7525,7 +7528,7 @@
       <c r="D161" s="5">
         <v>2</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7542,7 +7545,7 @@
       <c r="D162" s="2">
         <v>2</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7559,7 +7562,7 @@
       <c r="D163" s="5">
         <v>2</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7576,7 +7579,7 @@
       <c r="D164" s="2">
         <v>2</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7593,7 +7596,7 @@
       <c r="D165" s="5">
         <v>2</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7610,7 +7613,7 @@
       <c r="D166" s="2">
         <v>2</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7627,7 +7630,7 @@
       <c r="D167" s="5">
         <v>2</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7644,7 +7647,7 @@
       <c r="D168" s="2">
         <v>2</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7661,7 +7664,7 @@
       <c r="D169" s="5">
         <v>2</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7678,7 +7681,7 @@
       <c r="D170" s="2">
         <v>2</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7695,7 +7698,7 @@
       <c r="D171" s="5">
         <v>2</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7712,7 +7715,7 @@
       <c r="D172" s="2">
         <v>2</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7729,7 +7732,7 @@
       <c r="D173" s="5">
         <v>2</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -7746,12 +7749,12 @@
       <c r="D174" s="2">
         <v>2</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="17" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -7763,12 +7766,12 @@
       <c r="D175" s="5">
         <v>2</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -7780,12 +7783,12 @@
       <c r="D176" s="2">
         <v>2</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15">
-      <c r="A177" s="11" t="s">
+      <c r="A177" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -7797,12 +7800,12 @@
       <c r="D177" s="5">
         <v>2</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15">
-      <c r="A178" s="11" t="s">
+      <c r="A178" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -7814,12 +7817,12 @@
       <c r="D178" s="2">
         <v>2</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -7831,12 +7834,12 @@
       <c r="D179" s="5">
         <v>2</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -7848,12 +7851,12 @@
       <c r="D180" s="2">
         <v>2</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -7865,12 +7868,12 @@
       <c r="D181" s="5">
         <v>2</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15">
-      <c r="A182" s="11" t="s">
+      <c r="A182" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -7882,12 +7885,12 @@
       <c r="D182" s="2">
         <v>2</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15">
-      <c r="A183" s="11" t="s">
+      <c r="A183" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -7899,12 +7902,12 @@
       <c r="D183" s="5">
         <v>2</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="E183" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15">
-      <c r="A184" s="11" t="s">
+      <c r="A184" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -7916,12 +7919,12 @@
       <c r="D184" s="2">
         <v>2</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -7933,12 +7936,12 @@
       <c r="D185" s="5">
         <v>2</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15">
-      <c r="A186" s="11" t="s">
+      <c r="A186" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -7950,12 +7953,12 @@
       <c r="D186" s="2">
         <v>2</v>
       </c>
-      <c r="E186" s="8" t="s">
+      <c r="E186" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15">
-      <c r="A187" s="11" t="s">
+      <c r="A187" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -7967,12 +7970,12 @@
       <c r="D187" s="5">
         <v>2</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15">
-      <c r="A188" s="11" t="s">
+      <c r="A188" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -7984,12 +7987,12 @@
       <c r="D188" s="2">
         <v>2</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E188" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -8001,12 +8004,12 @@
       <c r="D189" s="5">
         <v>2</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15">
-      <c r="A190" s="11" t="s">
+      <c r="A190" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -8018,12 +8021,12 @@
       <c r="D190" s="2">
         <v>2</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -8035,12 +8038,12 @@
       <c r="D191" s="5">
         <v>2</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="E191" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -8052,12 +8055,12 @@
       <c r="D192" s="2">
         <v>2</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15">
-      <c r="A193" s="11" t="s">
+      <c r="A193" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -8069,12 +8072,12 @@
       <c r="D193" s="5">
         <v>2</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -8086,12 +8089,12 @@
       <c r="D194" s="2">
         <v>2</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -8103,12 +8106,12 @@
       <c r="D195" s="5">
         <v>2</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="E195" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -8120,12 +8123,12 @@
       <c r="D196" s="2">
         <v>2</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -8137,12 +8140,12 @@
       <c r="D197" s="5">
         <v>2</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E197" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="10" t="s">
         <v>340</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -8154,7 +8157,7 @@
       <c r="D198" s="2">
         <v>2</v>
       </c>
-      <c r="E198" s="8" t="s">
+      <c r="E198" s="17" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -8171,7 +8174,7 @@
       <c r="D199" s="5">
         <v>2</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8188,7 +8191,7 @@
       <c r="D200" s="2">
         <v>2</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="E200" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8205,7 +8208,7 @@
       <c r="D201" s="5">
         <v>2</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8222,7 +8225,7 @@
       <c r="D202" s="2">
         <v>2</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8239,7 +8242,7 @@
       <c r="D203" s="5">
         <v>2</v>
       </c>
-      <c r="E203" s="8" t="s">
+      <c r="E203" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8256,7 +8259,7 @@
       <c r="D204" s="2">
         <v>2</v>
       </c>
-      <c r="E204" s="8" t="s">
+      <c r="E204" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8273,7 +8276,7 @@
       <c r="D205" s="5">
         <v>2</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8290,7 +8293,7 @@
       <c r="D206" s="2">
         <v>2</v>
       </c>
-      <c r="E206" s="8" t="s">
+      <c r="E206" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8307,7 +8310,7 @@
       <c r="D207" s="5">
         <v>2</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8324,7 +8327,7 @@
       <c r="D208" s="2">
         <v>2</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8341,7 +8344,7 @@
       <c r="D209" s="5">
         <v>2</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8358,7 +8361,7 @@
       <c r="D210" s="2">
         <v>2</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8375,7 +8378,7 @@
       <c r="D211" s="5">
         <v>2</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="E211" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8392,7 +8395,7 @@
       <c r="D212" s="2">
         <v>2</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E212" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8409,7 +8412,7 @@
       <c r="D213" s="5">
         <v>2</v>
       </c>
-      <c r="E213" s="8" t="s">
+      <c r="E213" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8426,7 +8429,7 @@
       <c r="D214" s="2">
         <v>2</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8443,7 +8446,7 @@
       <c r="D215" s="5">
         <v>2</v>
       </c>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -8460,12 +8463,12 @@
       <c r="D216" s="2">
         <v>2</v>
       </c>
-      <c r="E216" s="8" t="s">
+      <c r="E216" s="17" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15">
-      <c r="A217" s="11" t="s">
+      <c r="A217" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B217" s="5" t="s">
@@ -8477,12 +8480,12 @@
       <c r="D217" s="5">
         <v>2</v>
       </c>
-      <c r="E217" s="8" t="s">
+      <c r="E217" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15">
-      <c r="A218" s="11" t="s">
+      <c r="A218" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -8494,12 +8497,12 @@
       <c r="D218" s="2">
         <v>2</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -8511,12 +8514,12 @@
       <c r="D219" s="5">
         <v>2</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15">
-      <c r="A220" s="11" t="s">
+      <c r="A220" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -8528,12 +8531,12 @@
       <c r="D220" s="2">
         <v>2</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -8545,12 +8548,12 @@
       <c r="D221" s="5">
         <v>2</v>
       </c>
-      <c r="E221" s="8" t="s">
+      <c r="E221" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15">
-      <c r="A222" s="11" t="s">
+      <c r="A222" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -8562,12 +8565,12 @@
       <c r="D222" s="2">
         <v>2</v>
       </c>
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15">
-      <c r="A223" s="11" t="s">
+      <c r="A223" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -8579,12 +8582,12 @@
       <c r="D223" s="5">
         <v>2</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15">
-      <c r="A224" s="11" t="s">
+      <c r="A224" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -8596,12 +8599,12 @@
       <c r="D224" s="2">
         <v>2</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="E224" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15">
-      <c r="A225" s="11" t="s">
+      <c r="A225" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -8613,12 +8616,12 @@
       <c r="D225" s="5">
         <v>2</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15">
-      <c r="A226" s="11" t="s">
+      <c r="A226" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -8630,12 +8633,12 @@
       <c r="D226" s="2">
         <v>2</v>
       </c>
-      <c r="E226" s="8" t="s">
+      <c r="E226" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15">
-      <c r="A227" s="11" t="s">
+      <c r="A227" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B227" s="5" t="s">
@@ -8647,12 +8650,12 @@
       <c r="D227" s="5">
         <v>2</v>
       </c>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15">
-      <c r="A228" s="11" t="s">
+      <c r="A228" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -8664,12 +8667,12 @@
       <c r="D228" s="2">
         <v>2</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15">
-      <c r="A229" s="11" t="s">
+      <c r="A229" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B229" s="5" t="s">
@@ -8681,12 +8684,12 @@
       <c r="D229" s="5">
         <v>2</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15">
-      <c r="A230" s="11" t="s">
+      <c r="A230" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -8698,12 +8701,12 @@
       <c r="D230" s="2">
         <v>2</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E230" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -8715,12 +8718,12 @@
       <c r="D231" s="5">
         <v>2</v>
       </c>
-      <c r="E231" s="8" t="s">
+      <c r="E231" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15">
-      <c r="A232" s="11" t="s">
+      <c r="A232" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B232" s="5" t="s">
@@ -8732,12 +8735,12 @@
       <c r="D232" s="2">
         <v>2</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15">
-      <c r="A233" s="11" t="s">
+      <c r="A233" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -8749,12 +8752,12 @@
       <c r="D233" s="5">
         <v>2</v>
       </c>
-      <c r="E233" s="8" t="s">
+      <c r="E233" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15">
-      <c r="A234" s="11" t="s">
+      <c r="A234" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -8766,7 +8769,7 @@
       <c r="D234" s="2">
         <v>2</v>
       </c>
-      <c r="E234" s="8" t="s">
+      <c r="E234" s="17" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -8783,7 +8786,7 @@
       <c r="D235" s="5">
         <v>2</v>
       </c>
-      <c r="E235" s="8" t="s">
+      <c r="E235" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8800,7 +8803,7 @@
       <c r="D236" s="2">
         <v>2</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8817,7 +8820,7 @@
       <c r="D237" s="5">
         <v>2</v>
       </c>
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8834,7 +8837,7 @@
       <c r="D238" s="2">
         <v>2</v>
       </c>
-      <c r="E238" s="8" t="s">
+      <c r="E238" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8851,7 +8854,7 @@
       <c r="D239" s="5">
         <v>2</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8868,7 +8871,7 @@
       <c r="D240" s="2">
         <v>2</v>
       </c>
-      <c r="E240" s="8" t="s">
+      <c r="E240" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8885,7 +8888,7 @@
       <c r="D241" s="5">
         <v>2</v>
       </c>
-      <c r="E241" s="8" t="s">
+      <c r="E241" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8902,7 +8905,7 @@
       <c r="D242" s="2">
         <v>2</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8919,7 +8922,7 @@
       <c r="D243" s="5">
         <v>2</v>
       </c>
-      <c r="E243" s="8" t="s">
+      <c r="E243" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8936,7 +8939,7 @@
       <c r="D244" s="2">
         <v>2</v>
       </c>
-      <c r="E244" s="8" t="s">
+      <c r="E244" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8953,7 +8956,7 @@
       <c r="D245" s="5">
         <v>2</v>
       </c>
-      <c r="E245" s="8" t="s">
+      <c r="E245" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8970,7 +8973,7 @@
       <c r="D246" s="2">
         <v>2</v>
       </c>
-      <c r="E246" s="8" t="s">
+      <c r="E246" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -8987,7 +8990,7 @@
       <c r="D247" s="5">
         <v>2</v>
       </c>
-      <c r="E247" s="8" t="s">
+      <c r="E247" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9004,7 +9007,7 @@
       <c r="D248" s="2">
         <v>2</v>
       </c>
-      <c r="E248" s="8" t="s">
+      <c r="E248" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9021,7 +9024,7 @@
       <c r="D249" s="5">
         <v>2</v>
       </c>
-      <c r="E249" s="8" t="s">
+      <c r="E249" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9038,7 +9041,7 @@
       <c r="D250" s="2">
         <v>2</v>
       </c>
-      <c r="E250" s="8" t="s">
+      <c r="E250" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9055,7 +9058,7 @@
       <c r="D251" s="5">
         <v>2</v>
       </c>
-      <c r="E251" s="8" t="s">
+      <c r="E251" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9072,7 +9075,7 @@
       <c r="D252" s="2">
         <v>2</v>
       </c>
-      <c r="E252" s="8" t="s">
+      <c r="E252" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9089,7 +9092,7 @@
       <c r="D253" s="5">
         <v>2</v>
       </c>
-      <c r="E253" s="8" t="s">
+      <c r="E253" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9106,7 +9109,7 @@
       <c r="D254" s="2">
         <v>2</v>
       </c>
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9123,7 +9126,7 @@
       <c r="D255" s="5">
         <v>2</v>
       </c>
-      <c r="E255" s="8" t="s">
+      <c r="E255" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9140,7 +9143,7 @@
       <c r="D256" s="2">
         <v>2</v>
       </c>
-      <c r="E256" s="8" t="s">
+      <c r="E256" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9157,7 +9160,7 @@
       <c r="D257" s="5">
         <v>2</v>
       </c>
-      <c r="E257" s="8" t="s">
+      <c r="E257" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9174,7 +9177,7 @@
       <c r="D258" s="2">
         <v>2</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E258" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9191,7 +9194,7 @@
       <c r="D259" s="5">
         <v>2</v>
       </c>
-      <c r="E259" s="8" t="s">
+      <c r="E259" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9208,7 +9211,7 @@
       <c r="D260" s="2">
         <v>2</v>
       </c>
-      <c r="E260" s="8" t="s">
+      <c r="E260" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9225,7 +9228,7 @@
       <c r="D261" s="5">
         <v>2</v>
       </c>
-      <c r="E261" s="8" t="s">
+      <c r="E261" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9242,7 +9245,7 @@
       <c r="D262" s="2">
         <v>2</v>
       </c>
-      <c r="E262" s="8" t="s">
+      <c r="E262" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9259,7 +9262,7 @@
       <c r="D263" s="5">
         <v>2</v>
       </c>
-      <c r="E263" s="8" t="s">
+      <c r="E263" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9276,7 +9279,7 @@
       <c r="D264" s="2">
         <v>2</v>
       </c>
-      <c r="E264" s="8" t="s">
+      <c r="E264" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9293,7 +9296,7 @@
       <c r="D265" s="5">
         <v>2</v>
       </c>
-      <c r="E265" s="8" t="s">
+      <c r="E265" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9310,7 +9313,7 @@
       <c r="D266" s="2">
         <v>2</v>
       </c>
-      <c r="E266" s="8" t="s">
+      <c r="E266" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9327,7 +9330,7 @@
       <c r="D267" s="5">
         <v>2</v>
       </c>
-      <c r="E267" s="8" t="s">
+      <c r="E267" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9344,7 +9347,7 @@
       <c r="D268" s="2">
         <v>2</v>
       </c>
-      <c r="E268" s="8" t="s">
+      <c r="E268" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9361,7 +9364,7 @@
       <c r="D269" s="5">
         <v>2</v>
       </c>
-      <c r="E269" s="8" t="s">
+      <c r="E269" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9378,12 +9381,12 @@
       <c r="D270" s="2">
         <v>2</v>
       </c>
-      <c r="E270" s="8" t="s">
+      <c r="E270" s="17" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15">
-      <c r="A271" s="11" t="s">
+      <c r="A271" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B271" s="5" t="s">
@@ -9395,12 +9398,12 @@
       <c r="D271" s="5">
         <v>2</v>
       </c>
-      <c r="E271" s="8" t="s">
+      <c r="E271" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15">
-      <c r="A272" s="11" t="s">
+      <c r="A272" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B272" s="5" t="s">
@@ -9412,12 +9415,12 @@
       <c r="D272" s="2">
         <v>2</v>
       </c>
-      <c r="E272" s="8" t="s">
+      <c r="E272" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15">
-      <c r="A273" s="11" t="s">
+      <c r="A273" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B273" s="5" t="s">
@@ -9429,12 +9432,12 @@
       <c r="D273" s="5">
         <v>2</v>
       </c>
-      <c r="E273" s="8" t="s">
+      <c r="E273" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15">
-      <c r="A274" s="11" t="s">
+      <c r="A274" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B274" s="5" t="s">
@@ -9446,12 +9449,12 @@
       <c r="D274" s="2">
         <v>2</v>
       </c>
-      <c r="E274" s="8" t="s">
+      <c r="E274" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15">
-      <c r="A275" s="11" t="s">
+      <c r="A275" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B275" s="5" t="s">
@@ -9463,12 +9466,12 @@
       <c r="D275" s="5">
         <v>2</v>
       </c>
-      <c r="E275" s="8" t="s">
+      <c r="E275" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15">
-      <c r="A276" s="11" t="s">
+      <c r="A276" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B276" s="5" t="s">
@@ -9480,12 +9483,12 @@
       <c r="D276" s="2">
         <v>2</v>
       </c>
-      <c r="E276" s="8" t="s">
+      <c r="E276" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15">
-      <c r="A277" s="11" t="s">
+      <c r="A277" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B277" s="5" t="s">
@@ -9497,12 +9500,12 @@
       <c r="D277" s="5">
         <v>2</v>
       </c>
-      <c r="E277" s="8" t="s">
+      <c r="E277" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15">
-      <c r="A278" s="11" t="s">
+      <c r="A278" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B278" s="5" t="s">
@@ -9514,12 +9517,12 @@
       <c r="D278" s="2">
         <v>2</v>
       </c>
-      <c r="E278" s="8" t="s">
+      <c r="E278" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15">
-      <c r="A279" s="11" t="s">
+      <c r="A279" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -9531,12 +9534,12 @@
       <c r="D279" s="5">
         <v>2</v>
       </c>
-      <c r="E279" s="8" t="s">
+      <c r="E279" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15">
-      <c r="A280" s="11" t="s">
+      <c r="A280" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B280" s="5" t="s">
@@ -9548,12 +9551,12 @@
       <c r="D280" s="2">
         <v>2</v>
       </c>
-      <c r="E280" s="8" t="s">
+      <c r="E280" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15">
-      <c r="A281" s="11" t="s">
+      <c r="A281" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B281" s="5" t="s">
@@ -9565,12 +9568,12 @@
       <c r="D281" s="5">
         <v>2</v>
       </c>
-      <c r="E281" s="8" t="s">
+      <c r="E281" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15">
-      <c r="A282" s="11" t="s">
+      <c r="A282" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B282" s="5" t="s">
@@ -9582,12 +9585,12 @@
       <c r="D282" s="2">
         <v>2</v>
       </c>
-      <c r="E282" s="8" t="s">
+      <c r="E282" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15">
-      <c r="A283" s="11" t="s">
+      <c r="A283" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -9599,12 +9602,12 @@
       <c r="D283" s="5">
         <v>2</v>
       </c>
-      <c r="E283" s="8" t="s">
+      <c r="E283" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15">
-      <c r="A284" s="11" t="s">
+      <c r="A284" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -9616,12 +9619,12 @@
       <c r="D284" s="2">
         <v>2</v>
       </c>
-      <c r="E284" s="8" t="s">
+      <c r="E284" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15">
-      <c r="A285" s="11" t="s">
+      <c r="A285" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -9633,12 +9636,12 @@
       <c r="D285" s="5">
         <v>2</v>
       </c>
-      <c r="E285" s="8" t="s">
+      <c r="E285" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15">
-      <c r="A286" s="11" t="s">
+      <c r="A286" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -9650,12 +9653,12 @@
       <c r="D286" s="2">
         <v>2</v>
       </c>
-      <c r="E286" s="8" t="s">
+      <c r="E286" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15">
-      <c r="A287" s="11" t="s">
+      <c r="A287" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -9667,12 +9670,12 @@
       <c r="D287" s="5">
         <v>2</v>
       </c>
-      <c r="E287" s="8" t="s">
+      <c r="E287" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15">
-      <c r="A288" s="11" t="s">
+      <c r="A288" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B288" s="5" t="s">
@@ -9684,12 +9687,12 @@
       <c r="D288" s="2">
         <v>2</v>
       </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15">
-      <c r="A289" s="11" t="s">
+      <c r="A289" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B289" s="5" t="s">
@@ -9701,12 +9704,12 @@
       <c r="D289" s="5">
         <v>2</v>
       </c>
-      <c r="E289" s="8" t="s">
+      <c r="E289" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15">
-      <c r="A290" s="11" t="s">
+      <c r="A290" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B290" s="5" t="s">
@@ -9718,12 +9721,12 @@
       <c r="D290" s="2">
         <v>2</v>
       </c>
-      <c r="E290" s="8" t="s">
+      <c r="E290" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15">
-      <c r="A291" s="11" t="s">
+      <c r="A291" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B291" s="5" t="s">
@@ -9735,12 +9738,12 @@
       <c r="D291" s="5">
         <v>2</v>
       </c>
-      <c r="E291" s="8" t="s">
+      <c r="E291" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15">
-      <c r="A292" s="11" t="s">
+      <c r="A292" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B292" s="5" t="s">
@@ -9752,12 +9755,12 @@
       <c r="D292" s="2">
         <v>2</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15">
-      <c r="A293" s="11" t="s">
+      <c r="A293" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B293" s="5" t="s">
@@ -9769,12 +9772,12 @@
       <c r="D293" s="5">
         <v>2</v>
       </c>
-      <c r="E293" s="8" t="s">
+      <c r="E293" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15">
-      <c r="A294" s="11" t="s">
+      <c r="A294" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B294" s="5" t="s">
@@ -9786,7 +9789,7 @@
       <c r="D294" s="2">
         <v>2</v>
       </c>
-      <c r="E294" s="8" t="s">
+      <c r="E294" s="17" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -9803,7 +9806,7 @@
       <c r="D295" s="5">
         <v>2</v>
       </c>
-      <c r="E295" s="8" t="s">
+      <c r="E295" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9820,7 +9823,7 @@
       <c r="D296" s="2">
         <v>2</v>
       </c>
-      <c r="E296" s="8" t="s">
+      <c r="E296" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9837,7 +9840,7 @@
       <c r="D297" s="5">
         <v>2</v>
       </c>
-      <c r="E297" s="8" t="s">
+      <c r="E297" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9854,7 +9857,7 @@
       <c r="D298" s="2">
         <v>2</v>
       </c>
-      <c r="E298" s="8" t="s">
+      <c r="E298" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9871,7 +9874,7 @@
       <c r="D299" s="5">
         <v>2</v>
       </c>
-      <c r="E299" s="8" t="s">
+      <c r="E299" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9888,7 +9891,7 @@
       <c r="D300" s="2">
         <v>2</v>
       </c>
-      <c r="E300" s="8" t="s">
+      <c r="E300" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9905,7 +9908,7 @@
       <c r="D301" s="5">
         <v>2</v>
       </c>
-      <c r="E301" s="8" t="s">
+      <c r="E301" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9922,7 +9925,7 @@
       <c r="D302" s="2">
         <v>2</v>
       </c>
-      <c r="E302" s="8" t="s">
+      <c r="E302" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9939,7 +9942,7 @@
       <c r="D303" s="5">
         <v>2</v>
       </c>
-      <c r="E303" s="8" t="s">
+      <c r="E303" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9956,7 +9959,7 @@
       <c r="D304" s="2">
         <v>2</v>
       </c>
-      <c r="E304" s="8" t="s">
+      <c r="E304" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9973,7 +9976,7 @@
       <c r="D305" s="5">
         <v>2</v>
       </c>
-      <c r="E305" s="8" t="s">
+      <c r="E305" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -9990,7 +9993,7 @@
       <c r="D306" s="2">
         <v>2</v>
       </c>
-      <c r="E306" s="8" t="s">
+      <c r="E306" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10007,7 +10010,7 @@
       <c r="D307" s="5">
         <v>2</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10024,7 +10027,7 @@
       <c r="D308" s="2">
         <v>2</v>
       </c>
-      <c r="E308" s="8" t="s">
+      <c r="E308" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10041,7 +10044,7 @@
       <c r="D309" s="5">
         <v>2</v>
       </c>
-      <c r="E309" s="8" t="s">
+      <c r="E309" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10058,7 +10061,7 @@
       <c r="D310" s="2">
         <v>2</v>
       </c>
-      <c r="E310" s="8" t="s">
+      <c r="E310" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10075,7 +10078,7 @@
       <c r="D311" s="5">
         <v>2</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="E311" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10092,7 +10095,7 @@
       <c r="D312" s="2">
         <v>2</v>
       </c>
-      <c r="E312" s="8" t="s">
+      <c r="E312" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10109,7 +10112,7 @@
       <c r="D313" s="5">
         <v>2</v>
       </c>
-      <c r="E313" s="8" t="s">
+      <c r="E313" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10126,7 +10129,7 @@
       <c r="D314" s="2">
         <v>2</v>
       </c>
-      <c r="E314" s="8" t="s">
+      <c r="E314" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10143,7 +10146,7 @@
       <c r="D315" s="5">
         <v>2</v>
       </c>
-      <c r="E315" s="8" t="s">
+      <c r="E315" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10160,7 +10163,7 @@
       <c r="D316" s="2">
         <v>2</v>
       </c>
-      <c r="E316" s="8" t="s">
+      <c r="E316" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10177,7 +10180,7 @@
       <c r="D317" s="5">
         <v>2</v>
       </c>
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10194,7 +10197,7 @@
       <c r="D318" s="2">
         <v>2</v>
       </c>
-      <c r="E318" s="8" t="s">
+      <c r="E318" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10211,7 +10214,7 @@
       <c r="D319" s="5">
         <v>2</v>
       </c>
-      <c r="E319" s="8" t="s">
+      <c r="E319" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10228,7 +10231,7 @@
       <c r="D320" s="2">
         <v>2</v>
       </c>
-      <c r="E320" s="8" t="s">
+      <c r="E320" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10245,7 +10248,7 @@
       <c r="D321" s="5">
         <v>2</v>
       </c>
-      <c r="E321" s="8" t="s">
+      <c r="E321" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10262,7 +10265,7 @@
       <c r="D322" s="2">
         <v>2</v>
       </c>
-      <c r="E322" s="8" t="s">
+      <c r="E322" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10279,7 +10282,7 @@
       <c r="D323" s="5">
         <v>2</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10296,7 +10299,7 @@
       <c r="D324" s="2">
         <v>2</v>
       </c>
-      <c r="E324" s="8" t="s">
+      <c r="E324" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10313,7 +10316,7 @@
       <c r="D325" s="5">
         <v>2</v>
       </c>
-      <c r="E325" s="8" t="s">
+      <c r="E325" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10330,7 +10333,7 @@
       <c r="D326" s="2">
         <v>2</v>
       </c>
-      <c r="E326" s="8" t="s">
+      <c r="E326" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10347,7 +10350,7 @@
       <c r="D327" s="5">
         <v>2</v>
       </c>
-      <c r="E327" s="8" t="s">
+      <c r="E327" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10364,7 +10367,7 @@
       <c r="D328" s="2">
         <v>2</v>
       </c>
-      <c r="E328" s="8" t="s">
+      <c r="E328" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10381,7 +10384,7 @@
       <c r="D329" s="5">
         <v>2</v>
       </c>
-      <c r="E329" s="8" t="s">
+      <c r="E329" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -10398,12 +10401,12 @@
       <c r="D330" s="2">
         <v>2</v>
       </c>
-      <c r="E330" s="8" t="s">
+      <c r="E330" s="17" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15">
-      <c r="A331" s="11" t="s">
+      <c r="A331" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B331" s="5" t="s">
@@ -10415,12 +10418,12 @@
       <c r="D331" s="5">
         <v>2</v>
       </c>
-      <c r="E331" s="8" t="s">
+      <c r="E331" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15">
-      <c r="A332" s="11" t="s">
+      <c r="A332" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B332" s="5" t="s">
@@ -10432,12 +10435,12 @@
       <c r="D332" s="2">
         <v>2</v>
       </c>
-      <c r="E332" s="8" t="s">
+      <c r="E332" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15">
-      <c r="A333" s="11" t="s">
+      <c r="A333" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B333" s="5" t="s">
@@ -10449,12 +10452,12 @@
       <c r="D333" s="5">
         <v>2</v>
       </c>
-      <c r="E333" s="8" t="s">
+      <c r="E333" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15">
-      <c r="A334" s="11" t="s">
+      <c r="A334" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B334" s="5" t="s">
@@ -10466,12 +10469,12 @@
       <c r="D334" s="2">
         <v>2</v>
       </c>
-      <c r="E334" s="8" t="s">
+      <c r="E334" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15">
-      <c r="A335" s="11" t="s">
+      <c r="A335" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B335" s="5" t="s">
@@ -10483,12 +10486,12 @@
       <c r="D335" s="5">
         <v>2</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="E335" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15">
-      <c r="A336" s="11" t="s">
+      <c r="A336" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B336" s="5" t="s">
@@ -10500,12 +10503,12 @@
       <c r="D336" s="2">
         <v>2</v>
       </c>
-      <c r="E336" s="8" t="s">
+      <c r="E336" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15">
-      <c r="A337" s="11" t="s">
+      <c r="A337" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B337" s="5" t="s">
@@ -10517,12 +10520,12 @@
       <c r="D337" s="5">
         <v>2</v>
       </c>
-      <c r="E337" s="8" t="s">
+      <c r="E337" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15">
-      <c r="A338" s="11" t="s">
+      <c r="A338" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B338" s="5" t="s">
@@ -10534,12 +10537,12 @@
       <c r="D338" s="2">
         <v>2</v>
       </c>
-      <c r="E338" s="8" t="s">
+      <c r="E338" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15">
-      <c r="A339" s="11" t="s">
+      <c r="A339" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B339" s="5" t="s">
@@ -10551,12 +10554,12 @@
       <c r="D339" s="5">
         <v>2</v>
       </c>
-      <c r="E339" s="8" t="s">
+      <c r="E339" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15">
-      <c r="A340" s="11" t="s">
+      <c r="A340" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B340" s="5" t="s">
@@ -10568,12 +10571,12 @@
       <c r="D340" s="2">
         <v>2</v>
       </c>
-      <c r="E340" s="8" t="s">
+      <c r="E340" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15">
-      <c r="A341" s="11" t="s">
+      <c r="A341" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -10585,12 +10588,12 @@
       <c r="D341" s="5">
         <v>2</v>
       </c>
-      <c r="E341" s="8" t="s">
+      <c r="E341" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15">
-      <c r="A342" s="11" t="s">
+      <c r="A342" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B342" s="5" t="s">
@@ -10602,12 +10605,12 @@
       <c r="D342" s="2">
         <v>2</v>
       </c>
-      <c r="E342" s="8" t="s">
+      <c r="E342" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15">
-      <c r="A343" s="11" t="s">
+      <c r="A343" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B343" s="5" t="s">
@@ -10619,12 +10622,12 @@
       <c r="D343" s="5">
         <v>2</v>
       </c>
-      <c r="E343" s="8" t="s">
+      <c r="E343" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15">
-      <c r="A344" s="11" t="s">
+      <c r="A344" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B344" s="5" t="s">
@@ -10636,12 +10639,12 @@
       <c r="D344" s="2">
         <v>2</v>
       </c>
-      <c r="E344" s="8" t="s">
+      <c r="E344" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15">
-      <c r="A345" s="11" t="s">
+      <c r="A345" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B345" s="5" t="s">
@@ -10653,12 +10656,12 @@
       <c r="D345" s="5">
         <v>2</v>
       </c>
-      <c r="E345" s="8" t="s">
+      <c r="E345" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15">
-      <c r="A346" s="11" t="s">
+      <c r="A346" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B346" s="5" t="s">
@@ -10670,12 +10673,12 @@
       <c r="D346" s="2">
         <v>2</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E346" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15">
-      <c r="A347" s="11" t="s">
+      <c r="A347" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B347" s="5" t="s">
@@ -10687,12 +10690,12 @@
       <c r="D347" s="5">
         <v>2</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15">
-      <c r="A348" s="11" t="s">
+      <c r="A348" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B348" s="5" t="s">
@@ -10704,12 +10707,12 @@
       <c r="D348" s="2">
         <v>2</v>
       </c>
-      <c r="E348" s="8" t="s">
+      <c r="E348" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15">
-      <c r="A349" s="11" t="s">
+      <c r="A349" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B349" s="5" t="s">
@@ -10721,12 +10724,12 @@
       <c r="D349" s="5">
         <v>2</v>
       </c>
-      <c r="E349" s="8" t="s">
+      <c r="E349" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15">
-      <c r="A350" s="11" t="s">
+      <c r="A350" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B350" s="5" t="s">
@@ -10738,12 +10741,12 @@
       <c r="D350" s="2">
         <v>2</v>
       </c>
-      <c r="E350" s="8" t="s">
+      <c r="E350" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15">
-      <c r="A351" s="11" t="s">
+      <c r="A351" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B351" s="5" t="s">
@@ -10755,12 +10758,12 @@
       <c r="D351" s="5">
         <v>2</v>
       </c>
-      <c r="E351" s="8" t="s">
+      <c r="E351" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15">
-      <c r="A352" s="11" t="s">
+      <c r="A352" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B352" s="5" t="s">
@@ -10772,12 +10775,12 @@
       <c r="D352" s="2">
         <v>2</v>
       </c>
-      <c r="E352" s="8" t="s">
+      <c r="E352" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15">
-      <c r="A353" s="11" t="s">
+      <c r="A353" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B353" s="5" t="s">
@@ -10789,12 +10792,12 @@
       <c r="D353" s="5">
         <v>2</v>
       </c>
-      <c r="E353" s="8" t="s">
+      <c r="E353" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15">
-      <c r="A354" s="11" t="s">
+      <c r="A354" s="10" t="s">
         <v>658</v>
       </c>
       <c r="B354" s="5" t="s">
@@ -10806,7 +10809,7 @@
       <c r="D354" s="2">
         <v>2</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="17" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -10823,7 +10826,7 @@
       <c r="D355" s="5">
         <v>2</v>
       </c>
-      <c r="E355" s="8" t="s">
+      <c r="E355" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10840,7 +10843,7 @@
       <c r="D356" s="2">
         <v>2</v>
       </c>
-      <c r="E356" s="8" t="s">
+      <c r="E356" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10857,7 +10860,7 @@
       <c r="D357" s="5">
         <v>2</v>
       </c>
-      <c r="E357" s="8" t="s">
+      <c r="E357" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10874,7 +10877,7 @@
       <c r="D358" s="2">
         <v>2</v>
       </c>
-      <c r="E358" s="8" t="s">
+      <c r="E358" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10891,7 +10894,7 @@
       <c r="D359" s="5">
         <v>2</v>
       </c>
-      <c r="E359" s="8" t="s">
+      <c r="E359" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10908,7 +10911,7 @@
       <c r="D360" s="2">
         <v>2</v>
       </c>
-      <c r="E360" s="8" t="s">
+      <c r="E360" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10925,7 +10928,7 @@
       <c r="D361" s="5">
         <v>2</v>
       </c>
-      <c r="E361" s="8" t="s">
+      <c r="E361" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10942,7 +10945,7 @@
       <c r="D362" s="2">
         <v>2</v>
       </c>
-      <c r="E362" s="8" t="s">
+      <c r="E362" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10959,7 +10962,7 @@
       <c r="D363" s="5">
         <v>2</v>
       </c>
-      <c r="E363" s="8" t="s">
+      <c r="E363" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10976,7 +10979,7 @@
       <c r="D364" s="2">
         <v>2</v>
       </c>
-      <c r="E364" s="8" t="s">
+      <c r="E364" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -10993,7 +10996,7 @@
       <c r="D365" s="5">
         <v>2</v>
       </c>
-      <c r="E365" s="8" t="s">
+      <c r="E365" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11010,7 +11013,7 @@
       <c r="D366" s="2">
         <v>2</v>
       </c>
-      <c r="E366" s="8" t="s">
+      <c r="E366" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11027,7 +11030,7 @@
       <c r="D367" s="5">
         <v>2</v>
       </c>
-      <c r="E367" s="8" t="s">
+      <c r="E367" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11044,7 +11047,7 @@
       <c r="D368" s="2">
         <v>2</v>
       </c>
-      <c r="E368" s="8" t="s">
+      <c r="E368" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11061,7 +11064,7 @@
       <c r="D369" s="5">
         <v>2</v>
       </c>
-      <c r="E369" s="8" t="s">
+      <c r="E369" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11078,7 +11081,7 @@
       <c r="D370" s="2">
         <v>2</v>
       </c>
-      <c r="E370" s="8" t="s">
+      <c r="E370" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11095,7 +11098,7 @@
       <c r="D371" s="5">
         <v>2</v>
       </c>
-      <c r="E371" s="8" t="s">
+      <c r="E371" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11112,7 +11115,7 @@
       <c r="D372" s="2">
         <v>2</v>
       </c>
-      <c r="E372" s="8" t="s">
+      <c r="E372" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11129,7 +11132,7 @@
       <c r="D373" s="5">
         <v>2</v>
       </c>
-      <c r="E373" s="8" t="s">
+      <c r="E373" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11146,7 +11149,7 @@
       <c r="D374" s="2">
         <v>2</v>
       </c>
-      <c r="E374" s="8" t="s">
+      <c r="E374" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11163,7 +11166,7 @@
       <c r="D375" s="5">
         <v>2</v>
       </c>
-      <c r="E375" s="8" t="s">
+      <c r="E375" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11180,7 +11183,7 @@
       <c r="D376" s="2">
         <v>2</v>
       </c>
-      <c r="E376" s="8" t="s">
+      <c r="E376" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11197,7 +11200,7 @@
       <c r="D377" s="5">
         <v>2</v>
       </c>
-      <c r="E377" s="8" t="s">
+      <c r="E377" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -11214,12 +11217,12 @@
       <c r="D378" s="2">
         <v>2</v>
       </c>
-      <c r="E378" s="8" t="s">
+      <c r="E378" s="17" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15">
-      <c r="A379" s="11" t="s">
+      <c r="A379" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B379" s="5" t="s">
@@ -11231,12 +11234,12 @@
       <c r="D379" s="5">
         <v>2</v>
       </c>
-      <c r="E379" s="8" t="s">
+      <c r="E379" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15">
-      <c r="A380" s="11" t="s">
+      <c r="A380" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B380" s="5" t="s">
@@ -11248,12 +11251,12 @@
       <c r="D380" s="2">
         <v>2</v>
       </c>
-      <c r="E380" s="8" t="s">
+      <c r="E380" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15">
-      <c r="A381" s="11" t="s">
+      <c r="A381" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B381" s="5" t="s">
@@ -11265,12 +11268,12 @@
       <c r="D381" s="5">
         <v>2</v>
       </c>
-      <c r="E381" s="8" t="s">
+      <c r="E381" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15">
-      <c r="A382" s="11" t="s">
+      <c r="A382" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B382" s="5" t="s">
@@ -11282,12 +11285,12 @@
       <c r="D382" s="2">
         <v>2</v>
       </c>
-      <c r="E382" s="8" t="s">
+      <c r="E382" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15">
-      <c r="A383" s="11" t="s">
+      <c r="A383" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B383" s="5" t="s">
@@ -11299,12 +11302,12 @@
       <c r="D383" s="5">
         <v>2</v>
       </c>
-      <c r="E383" s="8" t="s">
+      <c r="E383" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15">
-      <c r="A384" s="11" t="s">
+      <c r="A384" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B384" s="5" t="s">
@@ -11316,12 +11319,12 @@
       <c r="D384" s="2">
         <v>2</v>
       </c>
-      <c r="E384" s="8" t="s">
+      <c r="E384" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15">
-      <c r="A385" s="11" t="s">
+      <c r="A385" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B385" s="5" t="s">
@@ -11333,12 +11336,12 @@
       <c r="D385" s="5">
         <v>2</v>
       </c>
-      <c r="E385" s="8" t="s">
+      <c r="E385" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15">
-      <c r="A386" s="11" t="s">
+      <c r="A386" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B386" s="5" t="s">
@@ -11350,12 +11353,12 @@
       <c r="D386" s="2">
         <v>2</v>
       </c>
-      <c r="E386" s="8" t="s">
+      <c r="E386" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15">
-      <c r="A387" s="11" t="s">
+      <c r="A387" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B387" s="5" t="s">
@@ -11367,12 +11370,12 @@
       <c r="D387" s="5">
         <v>2</v>
       </c>
-      <c r="E387" s="8" t="s">
+      <c r="E387" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15">
-      <c r="A388" s="11" t="s">
+      <c r="A388" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B388" s="5" t="s">
@@ -11384,12 +11387,12 @@
       <c r="D388" s="2">
         <v>2</v>
       </c>
-      <c r="E388" s="8" t="s">
+      <c r="E388" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15">
-      <c r="A389" s="11" t="s">
+      <c r="A389" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B389" s="5" t="s">
@@ -11401,12 +11404,12 @@
       <c r="D389" s="5">
         <v>2</v>
       </c>
-      <c r="E389" s="8" t="s">
+      <c r="E389" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15">
-      <c r="A390" s="11" t="s">
+      <c r="A390" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B390" s="5" t="s">
@@ -11418,12 +11421,12 @@
       <c r="D390" s="2">
         <v>2</v>
       </c>
-      <c r="E390" s="8" t="s">
+      <c r="E390" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15">
-      <c r="A391" s="11" t="s">
+      <c r="A391" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B391" s="5" t="s">
@@ -11435,12 +11438,12 @@
       <c r="D391" s="5">
         <v>2</v>
       </c>
-      <c r="E391" s="8" t="s">
+      <c r="E391" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15">
-      <c r="A392" s="11" t="s">
+      <c r="A392" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B392" s="5" t="s">
@@ -11452,12 +11455,12 @@
       <c r="D392" s="2">
         <v>2</v>
       </c>
-      <c r="E392" s="8" t="s">
+      <c r="E392" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15">
-      <c r="A393" s="11" t="s">
+      <c r="A393" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B393" s="5" t="s">
@@ -11469,12 +11472,12 @@
       <c r="D393" s="5">
         <v>2</v>
       </c>
-      <c r="E393" s="8" t="s">
+      <c r="E393" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15">
-      <c r="A394" s="11" t="s">
+      <c r="A394" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B394" s="5" t="s">
@@ -11486,12 +11489,12 @@
       <c r="D394" s="2">
         <v>2</v>
       </c>
-      <c r="E394" s="8" t="s">
+      <c r="E394" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15">
-      <c r="A395" s="11" t="s">
+      <c r="A395" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B395" s="5" t="s">
@@ -11503,12 +11506,12 @@
       <c r="D395" s="5">
         <v>2</v>
       </c>
-      <c r="E395" s="8" t="s">
+      <c r="E395" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15">
-      <c r="A396" s="11" t="s">
+      <c r="A396" s="10" t="s">
         <v>754</v>
       </c>
       <c r="B396" s="5" t="s">
@@ -11520,7 +11523,7 @@
       <c r="D396" s="2">
         <v>2</v>
       </c>
-      <c r="E396" s="8" t="s">
+      <c r="E396" s="17" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -11537,7 +11540,7 @@
       <c r="D397" s="2">
         <v>3</v>
       </c>
-      <c r="E397" s="8" t="s">
+      <c r="E397" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11554,7 +11557,7 @@
       <c r="D398" s="2">
         <v>3</v>
       </c>
-      <c r="E398" s="8" t="s">
+      <c r="E398" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11571,7 +11574,7 @@
       <c r="D399" s="2">
         <v>3</v>
       </c>
-      <c r="E399" s="8" t="s">
+      <c r="E399" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11588,7 +11591,7 @@
       <c r="D400" s="2">
         <v>3</v>
       </c>
-      <c r="E400" s="8" t="s">
+      <c r="E400" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11605,7 +11608,7 @@
       <c r="D401" s="2">
         <v>3</v>
       </c>
-      <c r="E401" s="8" t="s">
+      <c r="E401" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11622,7 +11625,7 @@
       <c r="D402" s="2">
         <v>3</v>
       </c>
-      <c r="E402" s="8" t="s">
+      <c r="E402" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11639,7 +11642,7 @@
       <c r="D403" s="2">
         <v>3</v>
       </c>
-      <c r="E403" s="8" t="s">
+      <c r="E403" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11656,7 +11659,7 @@
       <c r="D404" s="2">
         <v>3</v>
       </c>
-      <c r="E404" s="8" t="s">
+      <c r="E404" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11673,7 +11676,7 @@
       <c r="D405" s="2">
         <v>3</v>
       </c>
-      <c r="E405" s="8" t="s">
+      <c r="E405" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11690,7 +11693,7 @@
       <c r="D406" s="2">
         <v>3</v>
       </c>
-      <c r="E406" s="8" t="s">
+      <c r="E406" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11707,7 +11710,7 @@
       <c r="D407" s="2">
         <v>3</v>
       </c>
-      <c r="E407" s="8" t="s">
+      <c r="E407" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11724,7 +11727,7 @@
       <c r="D408" s="2">
         <v>3</v>
       </c>
-      <c r="E408" s="8" t="s">
+      <c r="E408" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11741,7 +11744,7 @@
       <c r="D409" s="2">
         <v>3</v>
       </c>
-      <c r="E409" s="8" t="s">
+      <c r="E409" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11758,7 +11761,7 @@
       <c r="D410" s="2">
         <v>3</v>
       </c>
-      <c r="E410" s="8" t="s">
+      <c r="E410" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11775,7 +11778,7 @@
       <c r="D411" s="2">
         <v>3</v>
       </c>
-      <c r="E411" s="8" t="s">
+      <c r="E411" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11792,7 +11795,7 @@
       <c r="D412" s="2">
         <v>3</v>
       </c>
-      <c r="E412" s="8" t="s">
+      <c r="E412" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11809,7 +11812,7 @@
       <c r="D413" s="2">
         <v>3</v>
       </c>
-      <c r="E413" s="8" t="s">
+      <c r="E413" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11826,7 +11829,7 @@
       <c r="D414" s="2">
         <v>3</v>
       </c>
-      <c r="E414" s="8" t="s">
+      <c r="E414" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11843,7 +11846,7 @@
       <c r="D415" s="2">
         <v>3</v>
       </c>
-      <c r="E415" s="8" t="s">
+      <c r="E415" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11860,7 +11863,7 @@
       <c r="D416" s="2">
         <v>3</v>
       </c>
-      <c r="E416" s="8" t="s">
+      <c r="E416" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11877,7 +11880,7 @@
       <c r="D417" s="2">
         <v>3</v>
       </c>
-      <c r="E417" s="8" t="s">
+      <c r="E417" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11894,7 +11897,7 @@
       <c r="D418" s="2">
         <v>3</v>
       </c>
-      <c r="E418" s="8" t="s">
+      <c r="E418" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11911,7 +11914,7 @@
       <c r="D419" s="2">
         <v>3</v>
       </c>
-      <c r="E419" s="8" t="s">
+      <c r="E419" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11928,7 +11931,7 @@
       <c r="D420" s="2">
         <v>3</v>
       </c>
-      <c r="E420" s="8" t="s">
+      <c r="E420" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11945,7 +11948,7 @@
       <c r="D421" s="2">
         <v>3</v>
       </c>
-      <c r="E421" s="8" t="s">
+      <c r="E421" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11962,7 +11965,7 @@
       <c r="D422" s="2">
         <v>3</v>
       </c>
-      <c r="E422" s="8" t="s">
+      <c r="E422" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11979,7 +11982,7 @@
       <c r="D423" s="2">
         <v>3</v>
       </c>
-      <c r="E423" s="8" t="s">
+      <c r="E423" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -11996,7 +11999,7 @@
       <c r="D424" s="2">
         <v>3</v>
       </c>
-      <c r="E424" s="8" t="s">
+      <c r="E424" s="17" t="s">
         <v>794</v>
       </c>
     </row>
@@ -12013,12 +12016,12 @@
       <c r="D425" s="2">
         <v>3</v>
       </c>
-      <c r="E425" s="8" t="s">
+      <c r="E425" s="17" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15">
-      <c r="A426" s="11" t="s">
+      <c r="A426" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B426" s="5" t="s">
@@ -12030,12 +12033,12 @@
       <c r="D426" s="2">
         <v>3</v>
       </c>
-      <c r="E426" s="8" t="s">
+      <c r="E426" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15">
-      <c r="A427" s="11" t="s">
+      <c r="A427" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B427" s="5" t="s">
@@ -12047,12 +12050,12 @@
       <c r="D427" s="2">
         <v>3</v>
       </c>
-      <c r="E427" s="8" t="s">
+      <c r="E427" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15">
-      <c r="A428" s="11" t="s">
+      <c r="A428" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B428" s="5" t="s">
@@ -12064,12 +12067,12 @@
       <c r="D428" s="2">
         <v>3</v>
       </c>
-      <c r="E428" s="8" t="s">
+      <c r="E428" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15">
-      <c r="A429" s="11" t="s">
+      <c r="A429" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B429" s="5" t="s">
@@ -12081,12 +12084,12 @@
       <c r="D429" s="2">
         <v>3</v>
       </c>
-      <c r="E429" s="8" t="s">
+      <c r="E429" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15">
-      <c r="A430" s="11" t="s">
+      <c r="A430" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B430" s="5" t="s">
@@ -12098,12 +12101,12 @@
       <c r="D430" s="2">
         <v>3</v>
       </c>
-      <c r="E430" s="8" t="s">
+      <c r="E430" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15">
-      <c r="A431" s="11" t="s">
+      <c r="A431" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B431" s="5" t="s">
@@ -12115,12 +12118,12 @@
       <c r="D431" s="2">
         <v>3</v>
       </c>
-      <c r="E431" s="8" t="s">
+      <c r="E431" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15">
-      <c r="A432" s="11" t="s">
+      <c r="A432" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B432" s="5" t="s">
@@ -12132,12 +12135,12 @@
       <c r="D432" s="2">
         <v>3</v>
       </c>
-      <c r="E432" s="8" t="s">
+      <c r="E432" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15">
-      <c r="A433" s="11" t="s">
+      <c r="A433" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B433" s="5" t="s">
@@ -12149,12 +12152,12 @@
       <c r="D433" s="2">
         <v>3</v>
       </c>
-      <c r="E433" s="8" t="s">
+      <c r="E433" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15">
-      <c r="A434" s="11" t="s">
+      <c r="A434" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B434" s="5" t="s">
@@ -12166,12 +12169,12 @@
       <c r="D434" s="2">
         <v>3</v>
       </c>
-      <c r="E434" s="8" t="s">
+      <c r="E434" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15">
-      <c r="A435" s="11" t="s">
+      <c r="A435" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B435" s="5" t="s">
@@ -12183,12 +12186,12 @@
       <c r="D435" s="2">
         <v>3</v>
       </c>
-      <c r="E435" s="8" t="s">
+      <c r="E435" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15">
-      <c r="A436" s="11" t="s">
+      <c r="A436" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B436" s="5" t="s">
@@ -12200,12 +12203,12 @@
       <c r="D436" s="2">
         <v>3</v>
       </c>
-      <c r="E436" s="8" t="s">
+      <c r="E436" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15">
-      <c r="A437" s="11" t="s">
+      <c r="A437" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B437" s="5" t="s">
@@ -12217,12 +12220,12 @@
       <c r="D437" s="2">
         <v>3</v>
       </c>
-      <c r="E437" s="8" t="s">
+      <c r="E437" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15">
-      <c r="A438" s="11" t="s">
+      <c r="A438" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B438" s="5" t="s">
@@ -12234,12 +12237,12 @@
       <c r="D438" s="2">
         <v>3</v>
       </c>
-      <c r="E438" s="8" t="s">
+      <c r="E438" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15">
-      <c r="A439" s="11" t="s">
+      <c r="A439" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B439" s="5" t="s">
@@ -12251,12 +12254,12 @@
       <c r="D439" s="2">
         <v>3</v>
       </c>
-      <c r="E439" s="8" t="s">
+      <c r="E439" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15">
-      <c r="A440" s="11" t="s">
+      <c r="A440" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B440" s="5" t="s">
@@ -12268,12 +12271,12 @@
       <c r="D440" s="2">
         <v>3</v>
       </c>
-      <c r="E440" s="8" t="s">
+      <c r="E440" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15">
-      <c r="A441" s="11" t="s">
+      <c r="A441" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B441" s="5" t="s">
@@ -12285,12 +12288,12 @@
       <c r="D441" s="2">
         <v>3</v>
       </c>
-      <c r="E441" s="8" t="s">
+      <c r="E441" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15">
-      <c r="A442" s="11" t="s">
+      <c r="A442" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B442" s="5" t="s">
@@ -12302,12 +12305,12 @@
       <c r="D442" s="2">
         <v>3</v>
       </c>
-      <c r="E442" s="8" t="s">
+      <c r="E442" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15">
-      <c r="A443" s="11" t="s">
+      <c r="A443" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B443" s="5" t="s">
@@ -12319,12 +12322,12 @@
       <c r="D443" s="2">
         <v>3</v>
       </c>
-      <c r="E443" s="8" t="s">
+      <c r="E443" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15">
-      <c r="A444" s="11" t="s">
+      <c r="A444" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B444" s="5" t="s">
@@ -12336,12 +12339,12 @@
       <c r="D444" s="2">
         <v>3</v>
       </c>
-      <c r="E444" s="8" t="s">
+      <c r="E444" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15">
-      <c r="A445" s="11" t="s">
+      <c r="A445" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B445" s="5" t="s">
@@ -12353,12 +12356,12 @@
       <c r="D445" s="2">
         <v>3</v>
       </c>
-      <c r="E445" s="8" t="s">
+      <c r="E445" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15">
-      <c r="A446" s="11" t="s">
+      <c r="A446" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B446" s="5" t="s">
@@ -12370,12 +12373,12 @@
       <c r="D446" s="2">
         <v>3</v>
       </c>
-      <c r="E446" s="8" t="s">
+      <c r="E446" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15">
-      <c r="A447" s="11" t="s">
+      <c r="A447" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B447" s="5" t="s">
@@ -12387,12 +12390,12 @@
       <c r="D447" s="2">
         <v>3</v>
       </c>
-      <c r="E447" s="8" t="s">
+      <c r="E447" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15">
-      <c r="A448" s="11" t="s">
+      <c r="A448" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B448" s="5" t="s">
@@ -12404,12 +12407,12 @@
       <c r="D448" s="2">
         <v>3</v>
       </c>
-      <c r="E448" s="8" t="s">
+      <c r="E448" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15">
-      <c r="A449" s="11" t="s">
+      <c r="A449" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B449" s="5" t="s">
@@ -12421,12 +12424,12 @@
       <c r="D449" s="2">
         <v>3</v>
       </c>
-      <c r="E449" s="8" t="s">
+      <c r="E449" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15">
-      <c r="A450" s="11" t="s">
+      <c r="A450" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B450" s="5" t="s">
@@ -12438,12 +12441,12 @@
       <c r="D450" s="2">
         <v>3</v>
       </c>
-      <c r="E450" s="8" t="s">
+      <c r="E450" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15">
-      <c r="A451" s="11" t="s">
+      <c r="A451" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B451" s="5" t="s">
@@ -12455,12 +12458,12 @@
       <c r="D451" s="2">
         <v>3</v>
       </c>
-      <c r="E451" s="8" t="s">
+      <c r="E451" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15">
-      <c r="A452" s="11" t="s">
+      <c r="A452" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B452" s="5" t="s">
@@ -12472,12 +12475,12 @@
       <c r="D452" s="2">
         <v>3</v>
       </c>
-      <c r="E452" s="8" t="s">
+      <c r="E452" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15">
-      <c r="A453" s="11" t="s">
+      <c r="A453" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B453" s="5" t="s">
@@ -12489,12 +12492,12 @@
       <c r="D453" s="2">
         <v>3</v>
       </c>
-      <c r="E453" s="8" t="s">
+      <c r="E453" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15">
-      <c r="A454" s="11" t="s">
+      <c r="A454" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B454" s="5" t="s">
@@ -12506,12 +12509,12 @@
       <c r="D454" s="2">
         <v>3</v>
       </c>
-      <c r="E454" s="8" t="s">
+      <c r="E454" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15">
-      <c r="A455" s="11" t="s">
+      <c r="A455" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B455" s="5" t="s">
@@ -12523,12 +12526,12 @@
       <c r="D455" s="2">
         <v>3</v>
       </c>
-      <c r="E455" s="8" t="s">
+      <c r="E455" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15">
-      <c r="A456" s="11" t="s">
+      <c r="A456" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B456" s="5" t="s">
@@ -12540,12 +12543,12 @@
       <c r="D456" s="2">
         <v>3</v>
       </c>
-      <c r="E456" s="8" t="s">
+      <c r="E456" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15">
-      <c r="A457" s="11" t="s">
+      <c r="A457" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B457" s="5" t="s">
@@ -12557,12 +12560,12 @@
       <c r="D457" s="2">
         <v>3</v>
       </c>
-      <c r="E457" s="8" t="s">
+      <c r="E457" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15">
-      <c r="A458" s="11" t="s">
+      <c r="A458" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B458" s="5" t="s">
@@ -12574,12 +12577,12 @@
       <c r="D458" s="2">
         <v>3</v>
       </c>
-      <c r="E458" s="8" t="s">
+      <c r="E458" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15">
-      <c r="A459" s="11" t="s">
+      <c r="A459" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B459" s="5" t="s">
@@ -12591,12 +12594,12 @@
       <c r="D459" s="2">
         <v>3</v>
       </c>
-      <c r="E459" s="8" t="s">
+      <c r="E459" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15">
-      <c r="A460" s="11" t="s">
+      <c r="A460" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B460" s="5" t="s">
@@ -12608,12 +12611,12 @@
       <c r="D460" s="2">
         <v>3</v>
       </c>
-      <c r="E460" s="8" t="s">
+      <c r="E460" s="17" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15">
-      <c r="A461" s="11" t="s">
+      <c r="A461" s="10" t="s">
         <v>851</v>
       </c>
       <c r="B461" s="5" t="s">
@@ -12625,7 +12628,7 @@
       <c r="D461" s="2">
         <v>3</v>
       </c>
-      <c r="E461" s="8" t="s">
+      <c r="E461" s="17" t="s">
         <v>854</v>
       </c>
     </row>
@@ -12642,7 +12645,7 @@
       <c r="D462" s="2">
         <v>3</v>
       </c>
-      <c r="E462" s="8" t="s">
+      <c r="E462" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12659,7 +12662,7 @@
       <c r="D463" s="2">
         <v>3</v>
       </c>
-      <c r="E463" s="8" t="s">
+      <c r="E463" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12676,7 +12679,7 @@
       <c r="D464" s="2">
         <v>3</v>
       </c>
-      <c r="E464" s="8" t="s">
+      <c r="E464" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12693,7 +12696,7 @@
       <c r="D465" s="2">
         <v>3</v>
       </c>
-      <c r="E465" s="8" t="s">
+      <c r="E465" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12710,7 +12713,7 @@
       <c r="D466" s="2">
         <v>3</v>
       </c>
-      <c r="E466" s="8" t="s">
+      <c r="E466" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12727,7 +12730,7 @@
       <c r="D467" s="2">
         <v>3</v>
       </c>
-      <c r="E467" s="8" t="s">
+      <c r="E467" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12744,7 +12747,7 @@
       <c r="D468" s="2">
         <v>3</v>
       </c>
-      <c r="E468" s="8" t="s">
+      <c r="E468" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12761,7 +12764,7 @@
       <c r="D469" s="2">
         <v>3</v>
       </c>
-      <c r="E469" s="8" t="s">
+      <c r="E469" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12778,7 +12781,7 @@
       <c r="D470" s="2">
         <v>3</v>
       </c>
-      <c r="E470" s="8" t="s">
+      <c r="E470" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12795,7 +12798,7 @@
       <c r="D471" s="2">
         <v>3</v>
       </c>
-      <c r="E471" s="8" t="s">
+      <c r="E471" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12812,7 +12815,7 @@
       <c r="D472" s="2">
         <v>3</v>
       </c>
-      <c r="E472" s="8" t="s">
+      <c r="E472" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12829,7 +12832,7 @@
       <c r="D473" s="2">
         <v>3</v>
       </c>
-      <c r="E473" s="8" t="s">
+      <c r="E473" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12846,7 +12849,7 @@
       <c r="D474" s="2">
         <v>3</v>
       </c>
-      <c r="E474" s="8" t="s">
+      <c r="E474" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12863,7 +12866,7 @@
       <c r="D475" s="2">
         <v>3</v>
       </c>
-      <c r="E475" s="8" t="s">
+      <c r="E475" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12880,7 +12883,7 @@
       <c r="D476" s="2">
         <v>3</v>
       </c>
-      <c r="E476" s="8" t="s">
+      <c r="E476" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12897,7 +12900,7 @@
       <c r="D477" s="2">
         <v>3</v>
       </c>
-      <c r="E477" s="8" t="s">
+      <c r="E477" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12914,7 +12917,7 @@
       <c r="D478" s="2">
         <v>3</v>
       </c>
-      <c r="E478" s="8" t="s">
+      <c r="E478" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12931,7 +12934,7 @@
       <c r="D479" s="2">
         <v>3</v>
       </c>
-      <c r="E479" s="8" t="s">
+      <c r="E479" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12948,7 +12951,7 @@
       <c r="D480" s="2">
         <v>3</v>
       </c>
-      <c r="E480" s="8" t="s">
+      <c r="E480" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12965,7 +12968,7 @@
       <c r="D481" s="2">
         <v>3</v>
       </c>
-      <c r="E481" s="8" t="s">
+      <c r="E481" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12982,7 +12985,7 @@
       <c r="D482" s="2">
         <v>3</v>
       </c>
-      <c r="E482" s="8" t="s">
+      <c r="E482" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -12999,7 +13002,7 @@
       <c r="D483" s="2">
         <v>3</v>
       </c>
-      <c r="E483" s="8" t="s">
+      <c r="E483" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -13016,7 +13019,7 @@
       <c r="D484" s="2">
         <v>3</v>
       </c>
-      <c r="E484" s="8" t="s">
+      <c r="E484" s="17" t="s">
         <v>928</v>
       </c>
     </row>
@@ -13033,12 +13036,12 @@
       <c r="D485" s="2">
         <v>3</v>
       </c>
-      <c r="E485" s="8" t="s">
+      <c r="E485" s="17" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15">
-      <c r="A486" s="11" t="s">
+      <c r="A486" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B486" s="5" t="s">
@@ -13050,12 +13053,12 @@
       <c r="D486" s="2">
         <v>3</v>
       </c>
-      <c r="E486" s="8" t="s">
+      <c r="E486" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15">
-      <c r="A487" s="11" t="s">
+      <c r="A487" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B487" s="5" t="s">
@@ -13067,12 +13070,12 @@
       <c r="D487" s="2">
         <v>3</v>
       </c>
-      <c r="E487" s="8" t="s">
+      <c r="E487" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15">
-      <c r="A488" s="11" t="s">
+      <c r="A488" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B488" s="5" t="s">
@@ -13084,12 +13087,12 @@
       <c r="D488" s="2">
         <v>3</v>
       </c>
-      <c r="E488" s="8" t="s">
+      <c r="E488" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15">
-      <c r="A489" s="11" t="s">
+      <c r="A489" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B489" s="5" t="s">
@@ -13101,12 +13104,12 @@
       <c r="D489" s="2">
         <v>3</v>
       </c>
-      <c r="E489" s="8" t="s">
+      <c r="E489" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15">
-      <c r="A490" s="11" t="s">
+      <c r="A490" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B490" s="5" t="s">
@@ -13118,12 +13121,12 @@
       <c r="D490" s="2">
         <v>3</v>
       </c>
-      <c r="E490" s="8" t="s">
+      <c r="E490" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15">
-      <c r="A491" s="11" t="s">
+      <c r="A491" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B491" s="5" t="s">
@@ -13135,12 +13138,12 @@
       <c r="D491" s="2">
         <v>3</v>
       </c>
-      <c r="E491" s="8" t="s">
+      <c r="E491" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15">
-      <c r="A492" s="11" t="s">
+      <c r="A492" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B492" s="5" t="s">
@@ -13152,12 +13155,12 @@
       <c r="D492" s="2">
         <v>3</v>
       </c>
-      <c r="E492" s="8" t="s">
+      <c r="E492" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15">
-      <c r="A493" s="11" t="s">
+      <c r="A493" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B493" s="5" t="s">
@@ -13169,12 +13172,12 @@
       <c r="D493" s="2">
         <v>3</v>
       </c>
-      <c r="E493" s="8" t="s">
+      <c r="E493" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15">
-      <c r="A494" s="11" t="s">
+      <c r="A494" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B494" s="5" t="s">
@@ -13186,12 +13189,12 @@
       <c r="D494" s="2">
         <v>3</v>
       </c>
-      <c r="E494" s="8" t="s">
+      <c r="E494" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15">
-      <c r="A495" s="11" t="s">
+      <c r="A495" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B495" s="5" t="s">
@@ -13203,12 +13206,12 @@
       <c r="D495" s="2">
         <v>3</v>
       </c>
-      <c r="E495" s="8" t="s">
+      <c r="E495" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15">
-      <c r="A496" s="11" t="s">
+      <c r="A496" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B496" s="5" t="s">
@@ -13220,12 +13223,12 @@
       <c r="D496" s="2">
         <v>3</v>
       </c>
-      <c r="E496" s="8" t="s">
+      <c r="E496" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15">
-      <c r="A497" s="11" t="s">
+      <c r="A497" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B497" s="5" t="s">
@@ -13237,12 +13240,12 @@
       <c r="D497" s="2">
         <v>3</v>
       </c>
-      <c r="E497" s="8" t="s">
+      <c r="E497" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15">
-      <c r="A498" s="11" t="s">
+      <c r="A498" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B498" s="5" t="s">
@@ -13254,12 +13257,12 @@
       <c r="D498" s="2">
         <v>3</v>
       </c>
-      <c r="E498" s="8" t="s">
+      <c r="E498" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15">
-      <c r="A499" s="11" t="s">
+      <c r="A499" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B499" s="5" t="s">
@@ -13271,12 +13274,12 @@
       <c r="D499" s="2">
         <v>3</v>
       </c>
-      <c r="E499" s="8" t="s">
+      <c r="E499" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15">
-      <c r="A500" s="11" t="s">
+      <c r="A500" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B500" s="5" t="s">
@@ -13288,12 +13291,12 @@
       <c r="D500" s="2">
         <v>3</v>
       </c>
-      <c r="E500" s="8" t="s">
+      <c r="E500" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15">
-      <c r="A501" s="11" t="s">
+      <c r="A501" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B501" s="5" t="s">
@@ -13305,12 +13308,12 @@
       <c r="D501" s="2">
         <v>3</v>
       </c>
-      <c r="E501" s="8" t="s">
+      <c r="E501" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15">
-      <c r="A502" s="11" t="s">
+      <c r="A502" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B502" s="5" t="s">
@@ -13322,12 +13325,12 @@
       <c r="D502" s="2">
         <v>3</v>
       </c>
-      <c r="E502" s="8" t="s">
+      <c r="E502" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15">
-      <c r="A503" s="11" t="s">
+      <c r="A503" s="10" t="s">
         <v>975</v>
       </c>
       <c r="B503" s="5" t="s">
@@ -13339,12 +13342,12 @@
       <c r="D503" s="2">
         <v>3</v>
       </c>
-      <c r="E503" s="8" t="s">
+      <c r="E503" s="17" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15">
-      <c r="A504" s="12" t="s">
+      <c r="A504" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B504" s="5" t="s">
@@ -13356,12 +13359,12 @@
       <c r="D504" s="2">
         <v>4</v>
       </c>
-      <c r="E504" s="8" t="s">
+      <c r="E504" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15">
-      <c r="A505" s="12" t="s">
+      <c r="A505" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B505" s="5" t="s">
@@ -13373,12 +13376,12 @@
       <c r="D505" s="2">
         <v>4</v>
       </c>
-      <c r="E505" s="8" t="s">
+      <c r="E505" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15">
-      <c r="A506" s="12" t="s">
+      <c r="A506" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B506" s="5" t="s">
@@ -13390,12 +13393,12 @@
       <c r="D506" s="2">
         <v>4</v>
       </c>
-      <c r="E506" s="8" t="s">
+      <c r="E506" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15">
-      <c r="A507" s="12" t="s">
+      <c r="A507" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B507" s="5" t="s">
@@ -13407,12 +13410,12 @@
       <c r="D507" s="2">
         <v>4</v>
       </c>
-      <c r="E507" s="8" t="s">
+      <c r="E507" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="15">
-      <c r="A508" s="12" t="s">
+      <c r="A508" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B508" s="5" t="s">
@@ -13424,12 +13427,12 @@
       <c r="D508" s="2">
         <v>4</v>
       </c>
-      <c r="E508" s="8" t="s">
+      <c r="E508" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15">
-      <c r="A509" s="12" t="s">
+      <c r="A509" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B509" s="5" t="s">
@@ -13441,12 +13444,12 @@
       <c r="D509" s="2">
         <v>4</v>
       </c>
-      <c r="E509" s="8" t="s">
+      <c r="E509" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="15">
-      <c r="A510" s="12" t="s">
+      <c r="A510" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B510" s="5" t="s">
@@ -13458,12 +13461,12 @@
       <c r="D510" s="2">
         <v>4</v>
       </c>
-      <c r="E510" s="8" t="s">
+      <c r="E510" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="15">
-      <c r="A511" s="12" t="s">
+      <c r="A511" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B511" s="5" t="s">
@@ -13475,12 +13478,12 @@
       <c r="D511" s="2">
         <v>4</v>
       </c>
-      <c r="E511" s="8" t="s">
+      <c r="E511" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15">
-      <c r="A512" s="12" t="s">
+      <c r="A512" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B512" s="5" t="s">
@@ -13492,12 +13495,12 @@
       <c r="D512" s="2">
         <v>4</v>
       </c>
-      <c r="E512" s="8" t="s">
+      <c r="E512" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15">
-      <c r="A513" s="12" t="s">
+      <c r="A513" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B513" s="5" t="s">
@@ -13509,12 +13512,12 @@
       <c r="D513" s="2">
         <v>4</v>
       </c>
-      <c r="E513" s="8" t="s">
+      <c r="E513" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="15">
-      <c r="A514" s="12" t="s">
+      <c r="A514" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B514" s="5" t="s">
@@ -13526,12 +13529,12 @@
       <c r="D514" s="2">
         <v>4</v>
       </c>
-      <c r="E514" s="8" t="s">
+      <c r="E514" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="15">
-      <c r="A515" s="12" t="s">
+      <c r="A515" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B515" s="5" t="s">
@@ -13543,12 +13546,12 @@
       <c r="D515" s="2">
         <v>4</v>
       </c>
-      <c r="E515" s="8" t="s">
+      <c r="E515" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="15">
-      <c r="A516" s="12" t="s">
+      <c r="A516" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B516" s="5" t="s">
@@ -13560,12 +13563,12 @@
       <c r="D516" s="2">
         <v>4</v>
       </c>
-      <c r="E516" s="8" t="s">
+      <c r="E516" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15">
-      <c r="A517" s="12" t="s">
+      <c r="A517" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B517" s="5" t="s">
@@ -13577,12 +13580,12 @@
       <c r="D517" s="2">
         <v>4</v>
       </c>
-      <c r="E517" s="8" t="s">
+      <c r="E517" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="15">
-      <c r="A518" s="12" t="s">
+      <c r="A518" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B518" s="5" t="s">
@@ -13594,12 +13597,12 @@
       <c r="D518" s="2">
         <v>4</v>
       </c>
-      <c r="E518" s="8" t="s">
+      <c r="E518" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="15">
-      <c r="A519" s="12" t="s">
+      <c r="A519" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B519" s="5" t="s">
@@ -13611,12 +13614,12 @@
       <c r="D519" s="2">
         <v>4</v>
       </c>
-      <c r="E519" s="8" t="s">
+      <c r="E519" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="15">
-      <c r="A520" s="12" t="s">
+      <c r="A520" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B520" s="5" t="s">
@@ -13628,12 +13631,12 @@
       <c r="D520" s="2">
         <v>4</v>
       </c>
-      <c r="E520" s="8" t="s">
+      <c r="E520" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15">
-      <c r="A521" s="12" t="s">
+      <c r="A521" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B521" s="5" t="s">
@@ -13645,12 +13648,12 @@
       <c r="D521" s="2">
         <v>4</v>
       </c>
-      <c r="E521" s="8" t="s">
+      <c r="E521" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15">
-      <c r="A522" s="12" t="s">
+      <c r="A522" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B522" s="5" t="s">
@@ -13662,12 +13665,12 @@
       <c r="D522" s="2">
         <v>4</v>
       </c>
-      <c r="E522" s="8" t="s">
+      <c r="E522" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="15">
-      <c r="A523" s="12" t="s">
+      <c r="A523" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B523" s="5" t="s">
@@ -13679,12 +13682,12 @@
       <c r="D523" s="2">
         <v>4</v>
       </c>
-      <c r="E523" s="8" t="s">
+      <c r="E523" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15">
-      <c r="A524" s="12" t="s">
+      <c r="A524" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B524" s="5" t="s">
@@ -13696,12 +13699,12 @@
       <c r="D524" s="2">
         <v>4</v>
       </c>
-      <c r="E524" s="8" t="s">
+      <c r="E524" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="15">
-      <c r="A525" s="12" t="s">
+      <c r="A525" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B525" s="5" t="s">
@@ -13713,12 +13716,12 @@
       <c r="D525" s="2">
         <v>4</v>
       </c>
-      <c r="E525" s="8" t="s">
+      <c r="E525" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="15">
-      <c r="A526" s="12" t="s">
+      <c r="A526" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B526" s="5" t="s">
@@ -13730,12 +13733,12 @@
       <c r="D526" s="2">
         <v>4</v>
       </c>
-      <c r="E526" s="8" t="s">
+      <c r="E526" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15">
-      <c r="A527" s="12" t="s">
+      <c r="A527" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B527" s="5" t="s">
@@ -13747,12 +13750,12 @@
       <c r="D527" s="2">
         <v>4</v>
       </c>
-      <c r="E527" s="8" t="s">
+      <c r="E527" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="15">
-      <c r="A528" s="12" t="s">
+      <c r="A528" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B528" s="5" t="s">
@@ -13764,12 +13767,12 @@
       <c r="D528" s="2">
         <v>4</v>
       </c>
-      <c r="E528" s="8" t="s">
+      <c r="E528" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="15">
-      <c r="A529" s="12" t="s">
+      <c r="A529" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B529" s="5" t="s">
@@ -13781,12 +13784,12 @@
       <c r="D529" s="2">
         <v>4</v>
       </c>
-      <c r="E529" s="8" t="s">
+      <c r="E529" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="15">
-      <c r="A530" s="12" t="s">
+      <c r="A530" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B530" s="5" t="s">
@@ -13798,12 +13801,12 @@
       <c r="D530" s="2">
         <v>4</v>
       </c>
-      <c r="E530" s="8" t="s">
+      <c r="E530" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15">
-      <c r="A531" s="12" t="s">
+      <c r="A531" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B531" s="5" t="s">
@@ -13815,12 +13818,12 @@
       <c r="D531" s="2">
         <v>4</v>
       </c>
-      <c r="E531" s="8" t="s">
+      <c r="E531" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15">
-      <c r="A532" s="12" t="s">
+      <c r="A532" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B532" s="5" t="s">
@@ -13832,12 +13835,12 @@
       <c r="D532" s="2">
         <v>4</v>
       </c>
-      <c r="E532" s="8" t="s">
+      <c r="E532" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="15">
-      <c r="A533" s="12" t="s">
+      <c r="A533" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B533" s="5" t="s">
@@ -13849,12 +13852,12 @@
       <c r="D533" s="2">
         <v>4</v>
       </c>
-      <c r="E533" s="8" t="s">
+      <c r="E533" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="15">
-      <c r="A534" s="12" t="s">
+      <c r="A534" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B534" s="5" t="s">
@@ -13866,12 +13869,12 @@
       <c r="D534" s="2">
         <v>4</v>
       </c>
-      <c r="E534" s="8" t="s">
+      <c r="E534" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="15">
-      <c r="A535" s="12" t="s">
+      <c r="A535" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B535" s="5" t="s">
@@ -13883,12 +13886,12 @@
       <c r="D535" s="2">
         <v>4</v>
       </c>
-      <c r="E535" s="8" t="s">
+      <c r="E535" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15">
-      <c r="A536" s="12" t="s">
+      <c r="A536" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B536" s="5" t="s">
@@ -13900,12 +13903,12 @@
       <c r="D536" s="2">
         <v>4</v>
       </c>
-      <c r="E536" s="8" t="s">
+      <c r="E536" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="15">
-      <c r="A537" s="12" t="s">
+      <c r="A537" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B537" s="5" t="s">
@@ -13917,12 +13920,12 @@
       <c r="D537" s="2">
         <v>4</v>
       </c>
-      <c r="E537" s="8" t="s">
+      <c r="E537" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="15">
-      <c r="A538" s="12" t="s">
+      <c r="A538" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B538" s="5" t="s">
@@ -13934,12 +13937,12 @@
       <c r="D538" s="2">
         <v>4</v>
       </c>
-      <c r="E538" s="8" t="s">
+      <c r="E538" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="15">
-      <c r="A539" s="12" t="s">
+      <c r="A539" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="B539" s="5" t="s">
@@ -13951,12 +13954,12 @@
       <c r="D539" s="2">
         <v>4</v>
       </c>
-      <c r="E539" s="8" t="s">
+      <c r="E539" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="540" spans="1:5" ht="15">
-      <c r="A540" s="11" t="s">
+      <c r="A540" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B540" s="5" t="s">
@@ -13968,12 +13971,12 @@
       <c r="D540" s="2">
         <v>4</v>
       </c>
-      <c r="E540" s="8" t="s">
+      <c r="E540" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="15">
-      <c r="A541" s="11" t="s">
+      <c r="A541" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B541" s="5" t="s">
@@ -13985,12 +13988,12 @@
       <c r="D541" s="2">
         <v>4</v>
       </c>
-      <c r="E541" s="8" t="s">
+      <c r="E541" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="15">
-      <c r="A542" s="11" t="s">
+      <c r="A542" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B542" s="5" t="s">
@@ -14002,12 +14005,12 @@
       <c r="D542" s="2">
         <v>4</v>
       </c>
-      <c r="E542" s="8" t="s">
+      <c r="E542" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="15">
-      <c r="A543" s="11" t="s">
+      <c r="A543" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B543" s="5" t="s">
@@ -14019,12 +14022,12 @@
       <c r="D543" s="2">
         <v>4</v>
       </c>
-      <c r="E543" s="8" t="s">
+      <c r="E543" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="15">
-      <c r="A544" s="11" t="s">
+      <c r="A544" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B544" s="5" t="s">
@@ -14036,12 +14039,12 @@
       <c r="D544" s="2">
         <v>4</v>
       </c>
-      <c r="E544" s="8" t="s">
+      <c r="E544" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15">
-      <c r="A545" s="11" t="s">
+      <c r="A545" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B545" s="5" t="s">
@@ -14053,12 +14056,12 @@
       <c r="D545" s="2">
         <v>4</v>
       </c>
-      <c r="E545" s="8" t="s">
+      <c r="E545" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="15">
-      <c r="A546" s="11" t="s">
+      <c r="A546" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B546" s="5" t="s">
@@ -14070,12 +14073,12 @@
       <c r="D546" s="2">
         <v>4</v>
       </c>
-      <c r="E546" s="8" t="s">
+      <c r="E546" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="15">
-      <c r="A547" s="11" t="s">
+      <c r="A547" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B547" s="5" t="s">
@@ -14087,12 +14090,12 @@
       <c r="D547" s="2">
         <v>4</v>
       </c>
-      <c r="E547" s="8" t="s">
+      <c r="E547" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="15">
-      <c r="A548" s="11" t="s">
+      <c r="A548" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B548" s="5" t="s">
@@ -14104,12 +14107,12 @@
       <c r="D548" s="2">
         <v>4</v>
       </c>
-      <c r="E548" s="8" t="s">
+      <c r="E548" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="15">
-      <c r="A549" s="11" t="s">
+      <c r="A549" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B549" s="5" t="s">
@@ -14121,12 +14124,12 @@
       <c r="D549" s="2">
         <v>4</v>
       </c>
-      <c r="E549" s="8" t="s">
+      <c r="E549" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15">
-      <c r="A550" s="11" t="s">
+      <c r="A550" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B550" s="5" t="s">
@@ -14138,12 +14141,12 @@
       <c r="D550" s="2">
         <v>4</v>
       </c>
-      <c r="E550" s="8" t="s">
+      <c r="E550" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="15">
-      <c r="A551" s="11" t="s">
+      <c r="A551" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B551" s="5" t="s">
@@ -14155,12 +14158,12 @@
       <c r="D551" s="2">
         <v>4</v>
       </c>
-      <c r="E551" s="8" t="s">
+      <c r="E551" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="15">
-      <c r="A552" s="11" t="s">
+      <c r="A552" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B552" s="5" t="s">
@@ -14172,12 +14175,12 @@
       <c r="D552" s="2">
         <v>4</v>
       </c>
-      <c r="E552" s="8" t="s">
+      <c r="E552" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="15">
-      <c r="A553" s="11" t="s">
+      <c r="A553" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B553" s="5" t="s">
@@ -14189,12 +14192,12 @@
       <c r="D553" s="2">
         <v>4</v>
       </c>
-      <c r="E553" s="8" t="s">
+      <c r="E553" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="15">
-      <c r="A554" s="11" t="s">
+      <c r="A554" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B554" s="5" t="s">
@@ -14206,12 +14209,12 @@
       <c r="D554" s="2">
         <v>4</v>
       </c>
-      <c r="E554" s="8" t="s">
+      <c r="E554" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="15">
-      <c r="A555" s="11" t="s">
+      <c r="A555" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B555" s="5" t="s">
@@ -14223,12 +14226,12 @@
       <c r="D555" s="2">
         <v>4</v>
       </c>
-      <c r="E555" s="8" t="s">
+      <c r="E555" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="15">
-      <c r="A556" s="11" t="s">
+      <c r="A556" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B556" s="5" t="s">
@@ -14240,12 +14243,12 @@
       <c r="D556" s="2">
         <v>4</v>
       </c>
-      <c r="E556" s="8" t="s">
+      <c r="E556" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="15">
-      <c r="A557" s="11" t="s">
+      <c r="A557" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B557" s="5" t="s">
@@ -14257,12 +14260,12 @@
       <c r="D557" s="2">
         <v>4</v>
       </c>
-      <c r="E557" s="8" t="s">
+      <c r="E557" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="15">
-      <c r="A558" s="11" t="s">
+      <c r="A558" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B558" s="5" t="s">
@@ -14274,12 +14277,12 @@
       <c r="D558" s="2">
         <v>4</v>
       </c>
-      <c r="E558" s="8" t="s">
+      <c r="E558" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="15">
-      <c r="A559" s="11" t="s">
+      <c r="A559" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B559" s="5" t="s">
@@ -14291,12 +14294,12 @@
       <c r="D559" s="2">
         <v>4</v>
       </c>
-      <c r="E559" s="8" t="s">
+      <c r="E559" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="15">
-      <c r="A560" s="11" t="s">
+      <c r="A560" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B560" s="5" t="s">
@@ -14308,12 +14311,12 @@
       <c r="D560" s="2">
         <v>4</v>
       </c>
-      <c r="E560" s="8" t="s">
+      <c r="E560" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="15">
-      <c r="A561" s="11" t="s">
+      <c r="A561" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B561" s="5" t="s">
@@ -14325,12 +14328,12 @@
       <c r="D561" s="2">
         <v>4</v>
       </c>
-      <c r="E561" s="8" t="s">
+      <c r="E561" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="15">
-      <c r="A562" s="11" t="s">
+      <c r="A562" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B562" s="5" t="s">
@@ -14342,12 +14345,12 @@
       <c r="D562" s="2">
         <v>4</v>
       </c>
-      <c r="E562" s="8" t="s">
+      <c r="E562" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="15">
-      <c r="A563" s="11" t="s">
+      <c r="A563" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B563" s="5" t="s">
@@ -14359,12 +14362,12 @@
       <c r="D563" s="2">
         <v>4</v>
       </c>
-      <c r="E563" s="8" t="s">
+      <c r="E563" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="15">
-      <c r="A564" s="11" t="s">
+      <c r="A564" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B564" s="5" t="s">
@@ -14376,12 +14379,12 @@
       <c r="D564" s="2">
         <v>4</v>
       </c>
-      <c r="E564" s="8" t="s">
+      <c r="E564" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="15">
-      <c r="A565" s="11" t="s">
+      <c r="A565" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B565" s="5" t="s">
@@ -14393,12 +14396,12 @@
       <c r="D565" s="2">
         <v>4</v>
       </c>
-      <c r="E565" s="8" t="s">
+      <c r="E565" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="15">
-      <c r="A566" s="11" t="s">
+      <c r="A566" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B566" s="5" t="s">
@@ -14410,12 +14413,12 @@
       <c r="D566" s="2">
         <v>4</v>
       </c>
-      <c r="E566" s="8" t="s">
+      <c r="E566" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="15">
-      <c r="A567" s="11" t="s">
+      <c r="A567" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B567" s="5" t="s">
@@ -14427,12 +14430,12 @@
       <c r="D567" s="2">
         <v>4</v>
       </c>
-      <c r="E567" s="8" t="s">
+      <c r="E567" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="568" spans="1:5" ht="15">
-      <c r="A568" s="11" t="s">
+      <c r="A568" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B568" s="5" t="s">
@@ -14444,12 +14447,12 @@
       <c r="D568" s="2">
         <v>4</v>
       </c>
-      <c r="E568" s="8" t="s">
+      <c r="E568" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="15">
-      <c r="A569" s="11" t="s">
+      <c r="A569" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B569" s="5" t="s">
@@ -14461,12 +14464,12 @@
       <c r="D569" s="2">
         <v>4</v>
       </c>
-      <c r="E569" s="8" t="s">
+      <c r="E569" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="15">
-      <c r="A570" s="11" t="s">
+      <c r="A570" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B570" s="5" t="s">
@@ -14478,12 +14481,12 @@
       <c r="D570" s="2">
         <v>4</v>
       </c>
-      <c r="E570" s="8" t="s">
+      <c r="E570" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="15">
-      <c r="A571" s="11" t="s">
+      <c r="A571" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B571" s="5" t="s">
@@ -14495,12 +14498,12 @@
       <c r="D571" s="2">
         <v>4</v>
       </c>
-      <c r="E571" s="8" t="s">
+      <c r="E571" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="15">
-      <c r="A572" s="11" t="s">
+      <c r="A572" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B572" s="5" t="s">
@@ -14512,12 +14515,12 @@
       <c r="D572" s="2">
         <v>4</v>
       </c>
-      <c r="E572" s="8" t="s">
+      <c r="E572" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="15">
-      <c r="A573" s="11" t="s">
+      <c r="A573" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B573" s="5" t="s">
@@ -14529,12 +14532,12 @@
       <c r="D573" s="2">
         <v>4</v>
       </c>
-      <c r="E573" s="8" t="s">
+      <c r="E573" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="15">
-      <c r="A574" s="11" t="s">
+      <c r="A574" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B574" s="5" t="s">
@@ -14546,12 +14549,12 @@
       <c r="D574" s="2">
         <v>4</v>
       </c>
-      <c r="E574" s="8" t="s">
+      <c r="E574" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="15">
-      <c r="A575" s="11" t="s">
+      <c r="A575" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B575" s="5" t="s">
@@ -14563,12 +14566,12 @@
       <c r="D575" s="2">
         <v>4</v>
       </c>
-      <c r="E575" s="8" t="s">
+      <c r="E575" s="17" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="576" spans="1:5" ht="15">
-      <c r="A576" s="12" t="s">
+      <c r="A576" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B576" s="5" t="s">
@@ -14580,12 +14583,12 @@
       <c r="D576" s="2">
         <v>4</v>
       </c>
-      <c r="E576" s="8" t="s">
+      <c r="E576" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="577" spans="1:5" ht="15">
-      <c r="A577" s="12" t="s">
+      <c r="A577" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B577" s="5" t="s">
@@ -14597,12 +14600,12 @@
       <c r="D577" s="2">
         <v>4</v>
       </c>
-      <c r="E577" s="8" t="s">
+      <c r="E577" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="15">
-      <c r="A578" s="12" t="s">
+      <c r="A578" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B578" s="5" t="s">
@@ -14614,12 +14617,12 @@
       <c r="D578" s="2">
         <v>4</v>
       </c>
-      <c r="E578" s="8" t="s">
+      <c r="E578" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="15">
-      <c r="A579" s="12" t="s">
+      <c r="A579" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B579" s="5" t="s">
@@ -14631,12 +14634,12 @@
       <c r="D579" s="2">
         <v>4</v>
       </c>
-      <c r="E579" s="8" t="s">
+      <c r="E579" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="15">
-      <c r="A580" s="12" t="s">
+      <c r="A580" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B580" s="5" t="s">
@@ -14648,12 +14651,12 @@
       <c r="D580" s="2">
         <v>4</v>
       </c>
-      <c r="E580" s="8" t="s">
+      <c r="E580" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="581" spans="1:5" ht="15">
-      <c r="A581" s="12" t="s">
+      <c r="A581" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B581" s="5" t="s">
@@ -14665,12 +14668,12 @@
       <c r="D581" s="2">
         <v>4</v>
       </c>
-      <c r="E581" s="8" t="s">
+      <c r="E581" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="582" spans="1:5" ht="15">
-      <c r="A582" s="12" t="s">
+      <c r="A582" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B582" s="5" t="s">
@@ -14682,12 +14685,12 @@
       <c r="D582" s="2">
         <v>4</v>
       </c>
-      <c r="E582" s="8" t="s">
+      <c r="E582" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="15">
-      <c r="A583" s="12" t="s">
+      <c r="A583" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B583" s="5" t="s">
@@ -14699,12 +14702,12 @@
       <c r="D583" s="2">
         <v>4</v>
       </c>
-      <c r="E583" s="8" t="s">
+      <c r="E583" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="15">
-      <c r="A584" s="12" t="s">
+      <c r="A584" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B584" s="5" t="s">
@@ -14716,12 +14719,12 @@
       <c r="D584" s="2">
         <v>4</v>
       </c>
-      <c r="E584" s="8" t="s">
+      <c r="E584" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="15">
-      <c r="A585" s="12" t="s">
+      <c r="A585" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B585" s="5" t="s">
@@ -14733,12 +14736,12 @@
       <c r="D585" s="2">
         <v>4</v>
       </c>
-      <c r="E585" s="8" t="s">
+      <c r="E585" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="586" spans="1:5" ht="15">
-      <c r="A586" s="12" t="s">
+      <c r="A586" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B586" s="5" t="s">
@@ -14750,12 +14753,12 @@
       <c r="D586" s="2">
         <v>4</v>
       </c>
-      <c r="E586" s="8" t="s">
+      <c r="E586" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="15">
-      <c r="A587" s="12" t="s">
+      <c r="A587" s="11" t="s">
         <v>1161</v>
       </c>
       <c r="B587" s="5" t="s">
@@ -14767,12 +14770,12 @@
       <c r="D587" s="2">
         <v>4</v>
       </c>
-      <c r="E587" s="8" t="s">
+      <c r="E587" s="17" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="15">
-      <c r="A588" s="11" t="s">
+      <c r="A588" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B588" s="5" t="s">
@@ -14784,12 +14787,12 @@
       <c r="D588" s="2">
         <v>4</v>
       </c>
-      <c r="E588" s="8" t="s">
+      <c r="E588" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="15">
-      <c r="A589" s="11" t="s">
+      <c r="A589" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B589" s="5" t="s">
@@ -14801,12 +14804,12 @@
       <c r="D589" s="2">
         <v>4</v>
       </c>
-      <c r="E589" s="8" t="s">
+      <c r="E589" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="15">
-      <c r="A590" s="11" t="s">
+      <c r="A590" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B590" s="5" t="s">
@@ -14818,12 +14821,12 @@
       <c r="D590" s="2">
         <v>4</v>
       </c>
-      <c r="E590" s="8" t="s">
+      <c r="E590" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="15">
-      <c r="A591" s="11" t="s">
+      <c r="A591" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B591" s="5" t="s">
@@ -14835,12 +14838,12 @@
       <c r="D591" s="2">
         <v>4</v>
       </c>
-      <c r="E591" s="8" t="s">
+      <c r="E591" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="15">
-      <c r="A592" s="11" t="s">
+      <c r="A592" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B592" s="5" t="s">
@@ -14852,12 +14855,12 @@
       <c r="D592" s="2">
         <v>4</v>
       </c>
-      <c r="E592" s="8" t="s">
+      <c r="E592" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="15">
-      <c r="A593" s="11" t="s">
+      <c r="A593" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B593" s="5" t="s">
@@ -14869,12 +14872,12 @@
       <c r="D593" s="2">
         <v>4</v>
       </c>
-      <c r="E593" s="8" t="s">
+      <c r="E593" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="594" spans="1:5" ht="15">
-      <c r="A594" s="11" t="s">
+      <c r="A594" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B594" s="5" t="s">
@@ -14886,12 +14889,12 @@
       <c r="D594" s="2">
         <v>4</v>
       </c>
-      <c r="E594" s="8" t="s">
+      <c r="E594" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="15">
-      <c r="A595" s="11" t="s">
+      <c r="A595" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B595" s="5" t="s">
@@ -14903,12 +14906,12 @@
       <c r="D595" s="2">
         <v>4</v>
       </c>
-      <c r="E595" s="8" t="s">
+      <c r="E595" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="15">
-      <c r="A596" s="11" t="s">
+      <c r="A596" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B596" s="5" t="s">
@@ -14920,12 +14923,12 @@
       <c r="D596" s="2">
         <v>4</v>
       </c>
-      <c r="E596" s="8" t="s">
+      <c r="E596" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="15">
-      <c r="A597" s="11" t="s">
+      <c r="A597" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B597" s="5" t="s">
@@ -14937,12 +14940,12 @@
       <c r="D597" s="2">
         <v>4</v>
       </c>
-      <c r="E597" s="8" t="s">
+      <c r="E597" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="598" spans="1:5" ht="15">
-      <c r="A598" s="11" t="s">
+      <c r="A598" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B598" s="5" t="s">
@@ -14954,12 +14957,12 @@
       <c r="D598" s="2">
         <v>4</v>
       </c>
-      <c r="E598" s="8" t="s">
+      <c r="E598" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="599" spans="1:5" ht="15">
-      <c r="A599" s="11" t="s">
+      <c r="A599" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="B599" s="5" t="s">
@@ -14971,12 +14974,12 @@
       <c r="D599" s="2">
         <v>4</v>
       </c>
-      <c r="E599" s="8" t="s">
+      <c r="E599" s="17" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="15">
-      <c r="A600" s="12" t="s">
+      <c r="A600" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B600" s="5" t="s">
@@ -14988,12 +14991,12 @@
       <c r="D600" s="2">
         <v>4</v>
       </c>
-      <c r="E600" s="8" t="s">
+      <c r="E600" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="601" spans="1:5" ht="15">
-      <c r="A601" s="12" t="s">
+      <c r="A601" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B601" s="5" t="s">
@@ -15005,12 +15008,12 @@
       <c r="D601" s="2">
         <v>4</v>
       </c>
-      <c r="E601" s="8" t="s">
+      <c r="E601" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="602" spans="1:5" ht="15">
-      <c r="A602" s="12" t="s">
+      <c r="A602" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B602" s="5" t="s">
@@ -15022,12 +15025,12 @@
       <c r="D602" s="2">
         <v>4</v>
       </c>
-      <c r="E602" s="8" t="s">
+      <c r="E602" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15">
-      <c r="A603" s="12" t="s">
+      <c r="A603" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B603" s="5" t="s">
@@ -15039,12 +15042,12 @@
       <c r="D603" s="2">
         <v>4</v>
       </c>
-      <c r="E603" s="8" t="s">
+      <c r="E603" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15">
-      <c r="A604" s="12" t="s">
+      <c r="A604" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B604" s="5" t="s">
@@ -15056,12 +15059,12 @@
       <c r="D604" s="2">
         <v>4</v>
       </c>
-      <c r="E604" s="8" t="s">
+      <c r="E604" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="605" spans="1:5" ht="15">
-      <c r="A605" s="12" t="s">
+      <c r="A605" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B605" s="5" t="s">
@@ -15073,12 +15076,12 @@
       <c r="D605" s="2">
         <v>4</v>
       </c>
-      <c r="E605" s="8" t="s">
+      <c r="E605" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15">
-      <c r="A606" s="12" t="s">
+      <c r="A606" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B606" s="5" t="s">
@@ -15090,12 +15093,12 @@
       <c r="D606" s="2">
         <v>4</v>
       </c>
-      <c r="E606" s="8" t="s">
+      <c r="E606" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="15">
-      <c r="A607" s="12" t="s">
+      <c r="A607" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B607" s="5" t="s">
@@ -15107,12 +15110,12 @@
       <c r="D607" s="2">
         <v>4</v>
       </c>
-      <c r="E607" s="8" t="s">
+      <c r="E607" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="608" spans="1:5" ht="15">
-      <c r="A608" s="12" t="s">
+      <c r="A608" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B608" s="5" t="s">
@@ -15124,12 +15127,12 @@
       <c r="D608" s="2">
         <v>4</v>
       </c>
-      <c r="E608" s="8" t="s">
+      <c r="E608" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="609" spans="1:5" ht="15">
-      <c r="A609" s="12" t="s">
+      <c r="A609" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B609" s="5" t="s">
@@ -15141,12 +15144,12 @@
       <c r="D609" s="2">
         <v>4</v>
       </c>
-      <c r="E609" s="8" t="s">
+      <c r="E609" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15">
-      <c r="A610" s="12" t="s">
+      <c r="A610" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B610" s="5" t="s">
@@ -15158,12 +15161,12 @@
       <c r="D610" s="2">
         <v>4</v>
       </c>
-      <c r="E610" s="8" t="s">
+      <c r="E610" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="15">
-      <c r="A611" s="12" t="s">
+      <c r="A611" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B611" s="5" t="s">
@@ -15175,12 +15178,12 @@
       <c r="D611" s="2">
         <v>4</v>
       </c>
-      <c r="E611" s="8" t="s">
+      <c r="E611" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="612" spans="1:5" ht="15">
-      <c r="A612" s="12" t="s">
+      <c r="A612" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B612" s="5" t="s">
@@ -15192,12 +15195,12 @@
       <c r="D612" s="2">
         <v>4</v>
       </c>
-      <c r="E612" s="8" t="s">
+      <c r="E612" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="613" spans="1:5" ht="15">
-      <c r="A613" s="12" t="s">
+      <c r="A613" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B613" s="5" t="s">
@@ -15209,12 +15212,12 @@
       <c r="D613" s="2">
         <v>4</v>
       </c>
-      <c r="E613" s="8" t="s">
+      <c r="E613" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="15">
-      <c r="A614" s="12" t="s">
+      <c r="A614" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B614" s="5" t="s">
@@ -15226,12 +15229,12 @@
       <c r="D614" s="2">
         <v>4</v>
       </c>
-      <c r="E614" s="8" t="s">
+      <c r="E614" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15">
-      <c r="A615" s="12" t="s">
+      <c r="A615" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B615" s="5" t="s">
@@ -15243,12 +15246,12 @@
       <c r="D615" s="2">
         <v>4</v>
       </c>
-      <c r="E615" s="8" t="s">
+      <c r="E615" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="15">
-      <c r="A616" s="12" t="s">
+      <c r="A616" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B616" s="5" t="s">
@@ -15260,12 +15263,12 @@
       <c r="D616" s="2">
         <v>4</v>
       </c>
-      <c r="E616" s="8" t="s">
+      <c r="E616" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15">
-      <c r="A617" s="12" t="s">
+      <c r="A617" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="B617" s="5" t="s">
@@ -15277,12 +15280,12 @@
       <c r="D617" s="2">
         <v>4</v>
       </c>
-      <c r="E617" s="8" t="s">
+      <c r="E617" s="17" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="618" spans="1:5" ht="15">
-      <c r="A618" s="11" t="s">
+      <c r="A618" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B618" s="5" t="s">
@@ -15294,12 +15297,12 @@
       <c r="D618" s="2">
         <v>4</v>
       </c>
-      <c r="E618" s="8" t="s">
+      <c r="E618" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="619" spans="1:5" ht="15">
-      <c r="A619" s="11" t="s">
+      <c r="A619" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B619" s="5" t="s">
@@ -15311,12 +15314,12 @@
       <c r="D619" s="2">
         <v>4</v>
       </c>
-      <c r="E619" s="8" t="s">
+      <c r="E619" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="620" spans="1:5" ht="15">
-      <c r="A620" s="11" t="s">
+      <c r="A620" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B620" s="5" t="s">
@@ -15328,12 +15331,12 @@
       <c r="D620" s="2">
         <v>4</v>
       </c>
-      <c r="E620" s="8" t="s">
+      <c r="E620" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="621" spans="1:5" ht="15">
-      <c r="A621" s="11" t="s">
+      <c r="A621" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B621" s="5" t="s">
@@ -15345,12 +15348,12 @@
       <c r="D621" s="2">
         <v>4</v>
       </c>
-      <c r="E621" s="8" t="s">
+      <c r="E621" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="622" spans="1:5" ht="15">
-      <c r="A622" s="11" t="s">
+      <c r="A622" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B622" s="5" t="s">
@@ -15362,12 +15365,12 @@
       <c r="D622" s="2">
         <v>4</v>
       </c>
-      <c r="E622" s="8" t="s">
+      <c r="E622" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="623" spans="1:5" ht="15">
-      <c r="A623" s="11" t="s">
+      <c r="A623" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B623" s="5" t="s">
@@ -15379,12 +15382,12 @@
       <c r="D623" s="2">
         <v>4</v>
       </c>
-      <c r="E623" s="8" t="s">
+      <c r="E623" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="15">
-      <c r="A624" s="11" t="s">
+      <c r="A624" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B624" s="5" t="s">
@@ -15396,12 +15399,12 @@
       <c r="D624" s="2">
         <v>4</v>
       </c>
-      <c r="E624" s="8" t="s">
+      <c r="E624" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="625" spans="1:5" ht="15">
-      <c r="A625" s="11" t="s">
+      <c r="A625" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B625" s="5" t="s">
@@ -15413,12 +15416,12 @@
       <c r="D625" s="2">
         <v>4</v>
       </c>
-      <c r="E625" s="8" t="s">
+      <c r="E625" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="626" spans="1:5" ht="15">
-      <c r="A626" s="11" t="s">
+      <c r="A626" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B626" s="5" t="s">
@@ -15430,12 +15433,12 @@
       <c r="D626" s="2">
         <v>4</v>
       </c>
-      <c r="E626" s="8" t="s">
+      <c r="E626" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="627" spans="1:5" ht="15">
-      <c r="A627" s="11" t="s">
+      <c r="A627" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B627" s="5" t="s">
@@ -15447,12 +15450,12 @@
       <c r="D627" s="2">
         <v>4</v>
       </c>
-      <c r="E627" s="8" t="s">
+      <c r="E627" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="628" spans="1:5" ht="15">
-      <c r="A628" s="11" t="s">
+      <c r="A628" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B628" s="5" t="s">
@@ -15464,12 +15467,12 @@
       <c r="D628" s="2">
         <v>4</v>
       </c>
-      <c r="E628" s="8" t="s">
+      <c r="E628" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="629" spans="1:5" ht="15">
-      <c r="A629" s="11" t="s">
+      <c r="A629" s="10" t="s">
         <v>1251</v>
       </c>
       <c r="B629" s="5" t="s">
@@ -15481,12 +15484,12 @@
       <c r="D629" s="2">
         <v>4</v>
       </c>
-      <c r="E629" s="8" t="s">
+      <c r="E629" s="17" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="630" spans="1:5" ht="15">
-      <c r="A630" s="12" t="s">
+      <c r="A630" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B630" s="5" t="s">
@@ -15498,12 +15501,12 @@
       <c r="D630" s="2">
         <v>5</v>
       </c>
-      <c r="E630" s="8">
+      <c r="E630" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="631" spans="1:5" ht="15">
-      <c r="A631" s="12" t="s">
+      <c r="A631" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B631" s="5" t="s">
@@ -15515,12 +15518,12 @@
       <c r="D631" s="2">
         <v>5</v>
       </c>
-      <c r="E631" s="8">
+      <c r="E631" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="632" spans="1:5" ht="15">
-      <c r="A632" s="12" t="s">
+      <c r="A632" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B632" s="5" t="s">
@@ -15532,12 +15535,12 @@
       <c r="D632" s="2">
         <v>5</v>
       </c>
-      <c r="E632" s="8">
+      <c r="E632" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="633" spans="1:5" ht="15">
-      <c r="A633" s="12" t="s">
+      <c r="A633" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B633" s="5" t="s">
@@ -15549,12 +15552,12 @@
       <c r="D633" s="2">
         <v>5</v>
       </c>
-      <c r="E633" s="8">
+      <c r="E633" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="634" spans="1:5" ht="15">
-      <c r="A634" s="12" t="s">
+      <c r="A634" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B634" s="5" t="s">
@@ -15566,12 +15569,12 @@
       <c r="D634" s="2">
         <v>5</v>
       </c>
-      <c r="E634" s="8">
+      <c r="E634" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="635" spans="1:5" ht="15">
-      <c r="A635" s="12" t="s">
+      <c r="A635" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B635" s="5" t="s">
@@ -15583,12 +15586,12 @@
       <c r="D635" s="2">
         <v>5</v>
       </c>
-      <c r="E635" s="8">
+      <c r="E635" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="636" spans="1:5" ht="15">
-      <c r="A636" s="12" t="s">
+      <c r="A636" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B636" s="5" t="s">
@@ -15600,12 +15603,12 @@
       <c r="D636" s="2">
         <v>5</v>
       </c>
-      <c r="E636" s="8">
+      <c r="E636" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="637" spans="1:5" ht="15">
-      <c r="A637" s="12" t="s">
+      <c r="A637" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B637" s="5" t="s">
@@ -15617,12 +15620,12 @@
       <c r="D637" s="2">
         <v>5</v>
       </c>
-      <c r="E637" s="8">
+      <c r="E637" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="638" spans="1:5" ht="15">
-      <c r="A638" s="12" t="s">
+      <c r="A638" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B638" s="5" t="s">
@@ -15634,12 +15637,12 @@
       <c r="D638" s="2">
         <v>5</v>
       </c>
-      <c r="E638" s="8">
+      <c r="E638" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="639" spans="1:5" ht="15">
-      <c r="A639" s="12" t="s">
+      <c r="A639" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B639" s="5" t="s">
@@ -15651,12 +15654,12 @@
       <c r="D639" s="2">
         <v>5</v>
       </c>
-      <c r="E639" s="8">
+      <c r="E639" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="640" spans="1:5" ht="15">
-      <c r="A640" s="12" t="s">
+      <c r="A640" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B640" s="5" t="s">
@@ -15668,12 +15671,12 @@
       <c r="D640" s="2">
         <v>5</v>
       </c>
-      <c r="E640" s="8">
+      <c r="E640" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="641" spans="1:5" ht="15">
-      <c r="A641" s="12" t="s">
+      <c r="A641" s="11" t="s">
         <v>1276</v>
       </c>
       <c r="B641" s="5" t="s">
@@ -15685,12 +15688,12 @@
       <c r="D641" s="2">
         <v>5</v>
       </c>
-      <c r="E641" s="8">
+      <c r="E641" s="17">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="642" spans="1:5" ht="15">
-      <c r="A642" s="11" t="s">
+      <c r="A642" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B642" s="5" t="s">
@@ -15702,12 +15705,12 @@
       <c r="D642" s="2">
         <v>5</v>
       </c>
-      <c r="E642" s="8">
+      <c r="E642" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="643" spans="1:5" ht="15">
-      <c r="A643" s="11" t="s">
+      <c r="A643" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B643" s="5" t="s">
@@ -15719,12 +15722,12 @@
       <c r="D643" s="2">
         <v>5</v>
       </c>
-      <c r="E643" s="8">
+      <c r="E643" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="644" spans="1:5" ht="15">
-      <c r="A644" s="11" t="s">
+      <c r="A644" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B644" s="5" t="s">
@@ -15736,12 +15739,12 @@
       <c r="D644" s="2">
         <v>5</v>
       </c>
-      <c r="E644" s="8">
+      <c r="E644" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="15">
-      <c r="A645" s="11" t="s">
+      <c r="A645" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B645" s="5" t="s">
@@ -15753,12 +15756,12 @@
       <c r="D645" s="2">
         <v>5</v>
       </c>
-      <c r="E645" s="8">
+      <c r="E645" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="646" spans="1:5" ht="15">
-      <c r="A646" s="11" t="s">
+      <c r="A646" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B646" s="5" t="s">
@@ -15770,12 +15773,12 @@
       <c r="D646" s="2">
         <v>5</v>
       </c>
-      <c r="E646" s="8">
+      <c r="E646" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="647" spans="1:5" ht="15">
-      <c r="A647" s="11" t="s">
+      <c r="A647" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B647" s="5" t="s">
@@ -15787,12 +15790,12 @@
       <c r="D647" s="2">
         <v>5</v>
       </c>
-      <c r="E647" s="8">
+      <c r="E647" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="648" spans="1:5" ht="15">
-      <c r="A648" s="11" t="s">
+      <c r="A648" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B648" s="5" t="s">
@@ -15804,12 +15807,12 @@
       <c r="D648" s="2">
         <v>5</v>
       </c>
-      <c r="E648" s="8">
+      <c r="E648" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="649" spans="1:5" ht="15">
-      <c r="A649" s="11" t="s">
+      <c r="A649" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B649" s="5" t="s">
@@ -15821,12 +15824,12 @@
       <c r="D649" s="2">
         <v>5</v>
       </c>
-      <c r="E649" s="8">
+      <c r="E649" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="650" spans="1:5" ht="15">
-      <c r="A650" s="11" t="s">
+      <c r="A650" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B650" s="5" t="s">
@@ -15838,12 +15841,12 @@
       <c r="D650" s="2">
         <v>5</v>
       </c>
-      <c r="E650" s="8">
+      <c r="E650" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="651" spans="1:5" ht="15">
-      <c r="A651" s="11" t="s">
+      <c r="A651" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B651" s="5" t="s">
@@ -15855,12 +15858,12 @@
       <c r="D651" s="2">
         <v>5</v>
       </c>
-      <c r="E651" s="8">
+      <c r="E651" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="652" spans="1:5" ht="15">
-      <c r="A652" s="11" t="s">
+      <c r="A652" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B652" s="5" t="s">
@@ -15872,12 +15875,12 @@
       <c r="D652" s="2">
         <v>5</v>
       </c>
-      <c r="E652" s="8">
+      <c r="E652" s="17">
         <v>5.2</v>
       </c>
     </row>
     <row r="653" spans="1:5" ht="15">
-      <c r="A653" s="11" t="s">
+      <c r="A653" s="10" t="s">
         <v>1299</v>
       </c>
       <c r="B653" s="5" t="s">
@@ -15889,12 +15892,12 @@
       <c r="D653" s="2">
         <v>5</v>
       </c>
-      <c r="E653" s="8">
+      <c r="E653" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="654" spans="1:5" ht="15">
-      <c r="A654" s="12" t="s">
+      <c r="A654" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B654" s="5" t="s">
@@ -15906,12 +15909,12 @@
       <c r="D654" s="2">
         <v>5</v>
       </c>
-      <c r="E654" s="8">
+      <c r="E654" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="655" spans="1:5" ht="15">
-      <c r="A655" s="12" t="s">
+      <c r="A655" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B655" s="5" t="s">
@@ -15923,12 +15926,12 @@
       <c r="D655" s="2">
         <v>5</v>
       </c>
-      <c r="E655" s="8">
+      <c r="E655" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="656" spans="1:5" ht="15">
-      <c r="A656" s="12" t="s">
+      <c r="A656" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B656" s="5" t="s">
@@ -15940,12 +15943,12 @@
       <c r="D656" s="2">
         <v>5</v>
       </c>
-      <c r="E656" s="8">
+      <c r="E656" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="657" spans="1:5" ht="15">
-      <c r="A657" s="12" t="s">
+      <c r="A657" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B657" s="5" t="s">
@@ -15957,12 +15960,12 @@
       <c r="D657" s="2">
         <v>5</v>
       </c>
-      <c r="E657" s="8">
+      <c r="E657" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="658" spans="1:5" ht="15">
-      <c r="A658" s="12" t="s">
+      <c r="A658" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B658" s="5" t="s">
@@ -15974,12 +15977,12 @@
       <c r="D658" s="2">
         <v>5</v>
       </c>
-      <c r="E658" s="8">
+      <c r="E658" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="659" spans="1:5" ht="15">
-      <c r="A659" s="12" t="s">
+      <c r="A659" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B659" s="5" t="s">
@@ -15991,12 +15994,12 @@
       <c r="D659" s="2">
         <v>5</v>
       </c>
-      <c r="E659" s="8">
+      <c r="E659" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="15">
-      <c r="A660" s="12" t="s">
+      <c r="A660" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B660" s="5" t="s">
@@ -16008,12 +16011,12 @@
       <c r="D660" s="2">
         <v>5</v>
       </c>
-      <c r="E660" s="8">
+      <c r="E660" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="661" spans="1:5" ht="15">
-      <c r="A661" s="12" t="s">
+      <c r="A661" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B661" s="5" t="s">
@@ -16025,12 +16028,12 @@
       <c r="D661" s="2">
         <v>5</v>
       </c>
-      <c r="E661" s="8">
+      <c r="E661" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="662" spans="1:5" ht="15">
-      <c r="A662" s="12" t="s">
+      <c r="A662" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B662" s="5" t="s">
@@ -16042,12 +16045,12 @@
       <c r="D662" s="2">
         <v>5</v>
       </c>
-      <c r="E662" s="8">
+      <c r="E662" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="663" spans="1:5" ht="15">
-      <c r="A663" s="12" t="s">
+      <c r="A663" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B663" s="5" t="s">
@@ -16059,12 +16062,12 @@
       <c r="D663" s="2">
         <v>5</v>
       </c>
-      <c r="E663" s="8">
+      <c r="E663" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="664" spans="1:5" ht="15">
-      <c r="A664" s="12" t="s">
+      <c r="A664" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B664" s="5" t="s">
@@ -16076,12 +16079,12 @@
       <c r="D664" s="2">
         <v>5</v>
       </c>
-      <c r="E664" s="8">
+      <c r="E664" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="15">
-      <c r="A665" s="12" t="s">
+      <c r="A665" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="B665" s="5" t="s">
@@ -16093,12 +16096,12 @@
       <c r="D665" s="2">
         <v>5</v>
       </c>
-      <c r="E665" s="8">
+      <c r="E665" s="17">
         <v>5.3</v>
       </c>
     </row>
     <row r="666" spans="1:5" ht="15">
-      <c r="A666" s="11" t="s">
+      <c r="A666" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B666" s="5" t="s">
@@ -16110,12 +16113,12 @@
       <c r="D666" s="2">
         <v>5</v>
       </c>
-      <c r="E666" s="8">
+      <c r="E666" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="15">
-      <c r="A667" s="11" t="s">
+      <c r="A667" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B667" s="5" t="s">
@@ -16127,12 +16130,12 @@
       <c r="D667" s="2">
         <v>5</v>
       </c>
-      <c r="E667" s="8">
+      <c r="E667" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="668" spans="1:5" ht="15">
-      <c r="A668" s="11" t="s">
+      <c r="A668" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B668" s="5" t="s">
@@ -16144,12 +16147,12 @@
       <c r="D668" s="2">
         <v>5</v>
       </c>
-      <c r="E668" s="8">
+      <c r="E668" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="669" spans="1:5" ht="15">
-      <c r="A669" s="11" t="s">
+      <c r="A669" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B669" s="5" t="s">
@@ -16161,12 +16164,12 @@
       <c r="D669" s="2">
         <v>5</v>
       </c>
-      <c r="E669" s="8">
+      <c r="E669" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="15">
-      <c r="A670" s="11" t="s">
+      <c r="A670" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B670" s="5" t="s">
@@ -16178,12 +16181,12 @@
       <c r="D670" s="2">
         <v>5</v>
       </c>
-      <c r="E670" s="8">
+      <c r="E670" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="671" spans="1:5" ht="15">
-      <c r="A671" s="11" t="s">
+      <c r="A671" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B671" s="5" t="s">
@@ -16195,12 +16198,12 @@
       <c r="D671" s="2">
         <v>5</v>
       </c>
-      <c r="E671" s="8">
+      <c r="E671" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="672" spans="1:5" ht="15">
-      <c r="A672" s="11" t="s">
+      <c r="A672" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B672" s="5" t="s">
@@ -16212,12 +16215,12 @@
       <c r="D672" s="2">
         <v>5</v>
       </c>
-      <c r="E672" s="8">
+      <c r="E672" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="673" spans="1:5" ht="15">
-      <c r="A673" s="11" t="s">
+      <c r="A673" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B673" s="5" t="s">
@@ -16229,12 +16232,12 @@
       <c r="D673" s="2">
         <v>5</v>
       </c>
-      <c r="E673" s="8">
+      <c r="E673" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="674" spans="1:5" ht="15">
-      <c r="A674" s="11" t="s">
+      <c r="A674" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B674" s="5" t="s">
@@ -16246,12 +16249,12 @@
       <c r="D674" s="2">
         <v>5</v>
       </c>
-      <c r="E674" s="8">
+      <c r="E674" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="675" spans="1:5" ht="15">
-      <c r="A675" s="11" t="s">
+      <c r="A675" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B675" s="5" t="s">
@@ -16263,12 +16266,12 @@
       <c r="D675" s="2">
         <v>5</v>
       </c>
-      <c r="E675" s="8">
+      <c r="E675" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="676" spans="1:5" ht="15">
-      <c r="A676" s="11" t="s">
+      <c r="A676" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B676" s="5" t="s">
@@ -16280,12 +16283,12 @@
       <c r="D676" s="2">
         <v>5</v>
       </c>
-      <c r="E676" s="8">
+      <c r="E676" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="677" spans="1:5" ht="15">
-      <c r="A677" s="11" t="s">
+      <c r="A677" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="B677" s="5" t="s">
@@ -16297,12 +16300,12 @@
       <c r="D677" s="2">
         <v>5</v>
       </c>
-      <c r="E677" s="8">
+      <c r="E677" s="17">
         <v>5.4</v>
       </c>
     </row>
     <row r="678" spans="1:5" ht="15">
-      <c r="A678" s="12" t="s">
+      <c r="A678" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B678" s="5" t="s">
@@ -16314,12 +16317,12 @@
       <c r="D678" s="2">
         <v>5</v>
       </c>
-      <c r="E678" s="8">
+      <c r="E678" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="679" spans="1:5" ht="15">
-      <c r="A679" s="12" t="s">
+      <c r="A679" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B679" s="5" t="s">
@@ -16331,12 +16334,12 @@
       <c r="D679" s="2">
         <v>5</v>
       </c>
-      <c r="E679" s="8">
+      <c r="E679" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="680" spans="1:5" ht="15">
-      <c r="A680" s="12" t="s">
+      <c r="A680" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B680" s="5" t="s">
@@ -16348,12 +16351,12 @@
       <c r="D680" s="2">
         <v>5</v>
       </c>
-      <c r="E680" s="8">
+      <c r="E680" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="681" spans="1:5" ht="15">
-      <c r="A681" s="12" t="s">
+      <c r="A681" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B681" s="5" t="s">
@@ -16365,12 +16368,12 @@
       <c r="D681" s="2">
         <v>5</v>
       </c>
-      <c r="E681" s="8">
+      <c r="E681" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="682" spans="1:5" ht="15">
-      <c r="A682" s="12" t="s">
+      <c r="A682" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B682" s="5" t="s">
@@ -16382,12 +16385,12 @@
       <c r="D682" s="2">
         <v>5</v>
       </c>
-      <c r="E682" s="8">
+      <c r="E682" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="683" spans="1:5" ht="15">
-      <c r="A683" s="12" t="s">
+      <c r="A683" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B683" s="5" t="s">
@@ -16399,12 +16402,12 @@
       <c r="D683" s="2">
         <v>5</v>
       </c>
-      <c r="E683" s="8">
+      <c r="E683" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="684" spans="1:5" ht="15">
-      <c r="A684" s="12" t="s">
+      <c r="A684" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B684" s="5" t="s">
@@ -16416,12 +16419,12 @@
       <c r="D684" s="2">
         <v>5</v>
       </c>
-      <c r="E684" s="8">
+      <c r="E684" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="685" spans="1:5" ht="15">
-      <c r="A685" s="12" t="s">
+      <c r="A685" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B685" s="5" t="s">
@@ -16433,12 +16436,12 @@
       <c r="D685" s="2">
         <v>5</v>
       </c>
-      <c r="E685" s="8">
+      <c r="E685" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="686" spans="1:5" ht="15">
-      <c r="A686" s="12" t="s">
+      <c r="A686" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B686" s="5" t="s">
@@ -16450,12 +16453,12 @@
       <c r="D686" s="2">
         <v>5</v>
       </c>
-      <c r="E686" s="8">
+      <c r="E686" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="687" spans="1:5" ht="15">
-      <c r="A687" s="12" t="s">
+      <c r="A687" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B687" s="5" t="s">
@@ -16467,12 +16470,12 @@
       <c r="D687" s="2">
         <v>5</v>
       </c>
-      <c r="E687" s="8">
+      <c r="E687" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="688" spans="1:5" ht="15">
-      <c r="A688" s="12" t="s">
+      <c r="A688" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B688" s="5" t="s">
@@ -16484,12 +16487,12 @@
       <c r="D688" s="2">
         <v>5</v>
       </c>
-      <c r="E688" s="8">
+      <c r="E688" s="17">
         <v>5.5</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="15">
-      <c r="A689" s="12" t="s">
+      <c r="A689" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="B689" s="5" t="s">
@@ -16501,7 +16504,7 @@
       <c r="D689" s="2">
         <v>5</v>
       </c>
-      <c r="E689" s="8">
+      <c r="E689" s="17">
         <v>5.5</v>
       </c>
     </row>
@@ -16510,7 +16513,7 @@
       <c r="B690" s="1"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
-      <c r="E690" s="1"/>
+      <c r="E690" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16534,210 +16537,210 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1403</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14">
         <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14">
         <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14">
         <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14">
         <v>1.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14">
         <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>1415</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>1420</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>1427</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14">
         <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14">
         <v>5.3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14">
         <v>5.4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14">
         <v>5.5</v>
       </c>
     </row>
